--- a/data/hotels_by_city/Houston/Houston_shard_48.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_48.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="666">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d239865-Reviews-Best_Western_Plus_Northwest_Inn_Suites-Houston_Texas.html</t>
   </si>
   <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>174</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Best-Western-Plus-Northwest-Inn-Suites.h690675.Hotel-Information?chkin=7%2F12%2F2018&amp;chkout=7%2F13%2F2018&amp;rm1=a2&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1530203407310&amp;cancellable=false&amp;regionId=1503&amp;vip=false&amp;c=3606954a-bcd5-463d-ba6d-8e685e76bb64&amp;mctc=9&amp;exp_dp=72.25&amp;exp_ts=1530203407813&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
   </si>
   <si>
@@ -139,6 +148,1876 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/06/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239865-r598886730-Best_Western_Plus_Northwest_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>239865</t>
+  </si>
+  <si>
+    <t>598886730</t>
+  </si>
+  <si>
+    <t>07/23/2018</t>
+  </si>
+  <si>
+    <t>Family visit to Houston</t>
+  </si>
+  <si>
+    <t>Hotel was clean &amp; comfortable. It was difficult to find due to road construction and no signs to indicate where hotel was.  Had to go through another business driveway to get to hotel. The breakfast was ok. The dining area was a bit crowded. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>bwplusnorthwest, Hotel Manager at Best Western Plus Northwest Inn &amp; Suites, responded to this reviewResponded 1 week ago</t>
+  </si>
+  <si>
+    <t>Responded 1 week ago</t>
+  </si>
+  <si>
+    <t>Hotel was clean &amp; comfortable. It was difficult to find due to road construction and no signs to indicate where hotel was.  Had to go through another business driveway to get to hotel. The breakfast was ok. The dining area was a bit crowded. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239865-r580508546-Best_Western_Plus_Northwest_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>580508546</t>
+  </si>
+  <si>
+    <t>05/15/2018</t>
+  </si>
+  <si>
+    <t>Good, clean, adequate</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for a weekend when we were moving our son and daughter-in-law into their new house.  Honestly, we were barely in the room.  However, the hotel seems newly updated, so it is clean and comfortable.  Air conditioning was very good and coffee was good. Breakfast is what you would expect from this type of hotel, but good.  All of the staff is very friendly, too.  And,  I actually used the fitness room, too, and it was good.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>bwplusnorthwest, Hotel Manager at Best Western Plus Northwest Inn &amp; Suites, responded to this reviewResponded May 18, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 18, 2018</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for a weekend when we were moving our son and daughter-in-law into their new house.  Honestly, we were barely in the room.  However, the hotel seems newly updated, so it is clean and comfortable.  Air conditioning was very good and coffee was good. Breakfast is what you would expect from this type of hotel, but good.  All of the staff is very friendly, too.  And,  I actually used the fitness room, too, and it was good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239865-r580152575-Best_Western_Plus_Northwest_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>580152575</t>
+  </si>
+  <si>
+    <t>05/14/2018</t>
+  </si>
+  <si>
+    <t>Very Clean, Friendly Staff</t>
+  </si>
+  <si>
+    <t>Getting in to the location was hard because of the surrounding area construction but once we arrived we were very please. Staff was helpful and friendly and the hotel was very clean and updated. We will definitely stay here again. Mr. Vee Thank you again!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Getting in to the location was hard because of the surrounding area construction but once we arrived we were very please. Staff was helpful and friendly and the hotel was very clean and updated. We will definitely stay here again. Mr. Vee Thank you again!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239865-r569667985-Best_Western_Plus_Northwest_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>569667985</t>
+  </si>
+  <si>
+    <t>03/30/2018</t>
+  </si>
+  <si>
+    <t>Brentech</t>
+  </si>
+  <si>
+    <t>Our company uses this hotel every time we have business in Houston for a certain project.  We have never had any problems, the staff is very professional and the rooms are clean.  We will keep using this hotel because of their location.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Our company uses this hotel every time we have business in Houston for a certain project.  We have never had any problems, the staff is very professional and the rooms are clean.  We will keep using this hotel because of their location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239865-r567122789-Best_Western_Plus_Northwest_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>567122789</t>
+  </si>
+  <si>
+    <t>03/17/2018</t>
+  </si>
+  <si>
+    <t>Good, neat , quite place</t>
+  </si>
+  <si>
+    <t>This property is just near the main road...Easily accessible...Very neat, spacious rooms, friendly people...Had a pleasant stay....Some indian restraunts nearby accessible by car....Would surely like to comeback.....MoreShow less</t>
+  </si>
+  <si>
+    <t>bwplusnorthwest, Hotel Manager at Best Western Plus Northwest Inn &amp; Suites, responded to this reviewResponded March 20, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 20, 2018</t>
+  </si>
+  <si>
+    <t>This property is just near the main road...Easily accessible...Very neat, spacious rooms, friendly people...Had a pleasant stay....Some indian restraunts nearby accessible by car....Would surely like to comeback.....More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239865-r565273979-Best_Western_Plus_Northwest_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>565273979</t>
+  </si>
+  <si>
+    <t>03/08/2018</t>
+  </si>
+  <si>
+    <t>Stay at Best Wester</t>
+  </si>
+  <si>
+    <t>The hotel was clean and quiet and the staff was very friendly. It's hard to get 200 chara ters when all. I did was sleep there. I got up early both days and came back late. It was a nice stay andwe will use your hotels in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>bwplusnorthwest, Hotel Manager at Best Western Plus Northwest Inn &amp; Suites, responded to this reviewResponded March 10, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 10, 2018</t>
+  </si>
+  <si>
+    <t>The hotel was clean and quiet and the staff was very friendly. It's hard to get 200 chara ters when all. I did was sleep there. I got up early both days and came back late. It was a nice stay andwe will use your hotels in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239865-r549396346-Best_Western_Plus_Northwest_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>549396346</t>
+  </si>
+  <si>
+    <t>12/26/2017</t>
+  </si>
+  <si>
+    <t>Very good</t>
+  </si>
+  <si>
+    <t>Hotelwas very clean and great check in was easy and amazing, location was perfect close to EVERYTHING... Property was well secured by guard . had late check out and breakfast was amazing as well total plus</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239865-r548549881-Best_Western_Plus_Northwest_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>548549881</t>
+  </si>
+  <si>
+    <t>12/21/2017</t>
+  </si>
+  <si>
+    <t>Rob North Texas</t>
+  </si>
+  <si>
+    <t>This is a very nice and quite hotel. the rooms are very clean and comfortable. The breakfast was very good with a large selection. there are several  well known restaurants in the area. there is some construction in the area but, It's Houston where they are always working on something.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239865-r547728688-Best_Western_Plus_Northwest_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>547728688</t>
+  </si>
+  <si>
+    <t>12/17/2017</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>This Hotel is very well located.The stuff is very friendly helpful and professional.It provides with clean rooms and it has a gym to exercise.The complementary breakfast could use improvement but over all is a great Hotel to stay with a well lit parking Lot.</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239865-r540577438-Best_Western_Plus_Northwest_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>540577438</t>
+  </si>
+  <si>
+    <t>11/12/2017</t>
+  </si>
+  <si>
+    <t>Nice Hotel near my Relatives</t>
+  </si>
+  <si>
+    <t>We traveled to Houston to see family. This hotel was only 3 miles from their home. There was a lot of road construction, but other than that we had an easy time going to &amp; from their house. The rate was comparable to other hotels in the area. The hotel room was clean and big and had a frig &amp; microwave. The free breakfast was ok - the first morning - fruit, breads, cereal, waffle, bacon, sausage &amp; tator tots. The next they had eggs &amp; link sausage and cereal &amp; waffles. The bacon was undercooked but I cooked it s little more in the microwave &amp; it was good,  We would stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>We traveled to Houston to see family. This hotel was only 3 miles from their home. There was a lot of road construction, but other than that we had an easy time going to &amp; from their house. The rate was comparable to other hotels in the area. The hotel room was clean and big and had a frig &amp; microwave. The free breakfast was ok - the first morning - fruit, breads, cereal, waffle, bacon, sausage &amp; tator tots. The next they had eggs &amp; link sausage and cereal &amp; waffles. The bacon was undercooked but I cooked it s little more in the microwave &amp; it was good,  We would stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239865-r539295805-Best_Western_Plus_Northwest_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>539295805</t>
+  </si>
+  <si>
+    <t>11/07/2017</t>
+  </si>
+  <si>
+    <t>Great Hotel and Staff Terrible Bed</t>
+  </si>
+  <si>
+    <t>The hotel is nice, easy access to Hwy 290 and staff was friendly and helpful.  However, the bed mattress in our room needs to be replaced as it heavily slopes to the middle.  Recommend to inspect room bedding prior to securing room.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239865-r538646196-Best_Western_Plus_Northwest_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>538646196</t>
+  </si>
+  <si>
+    <t>11/05/2017</t>
+  </si>
+  <si>
+    <t>Northwest Inn &amp; Suites, Houston, TX</t>
+  </si>
+  <si>
+    <t>This hotel was so relaxing and comfortable - we would definitely stay again if we're passing through Houston, TX. The staff was especially pleasant and cordial, the breakfast was excellent and the rooms were obviously well cared for. Our only issue was the difficult time we had finding the hotel.  This was due to the fact that it was quite a distance from I-10 (which is what we traveled on) and the fact that there was heavy contruction in what seemed like most of Houston.  Once we got to the hotel - we had a most relaxing and enjoyable stay.</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239865-r525600054-Best_Western_Plus_Northwest_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>525600054</t>
+  </si>
+  <si>
+    <t>09/18/2017</t>
+  </si>
+  <si>
+    <t>Perfect example of "Give 'em a chance"</t>
+  </si>
+  <si>
+    <t>This Best Western gave me a little pause as I entered the parking lot. It is fairly close to a highway. The parking lot and exterior need attention. I thought of changing locations, but I saw the internal pics on the Best Western app so went in. The lobby is beautiful and completely different than what I first saw. They are in the process of renovating every single room and are bringing rooms online every day.The hallway still had some carpeting going in so there was a tripping hazard there.The King room I had was immaculate. Beautifully re-done. I would definitely revisit if in this part of Houston again.One unique item was I had to call the front desk for the first time ever to ask how to turn the shower own. There is a ring under the tub faucet that you pull down. It was a first for me but the desk was great and stayed on the line while I tried to find it.I liked the breakfast bar option as well for their complementary breakfast. Nice for a solo traveler.Oh and I slept straight through and never heard the highway.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>Sawan P, Manager at Best Western Plus Northwest Inn &amp; Suites, responded to this reviewResponded September 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 19, 2017</t>
+  </si>
+  <si>
+    <t>This Best Western gave me a little pause as I entered the parking lot. It is fairly close to a highway. The parking lot and exterior need attention. I thought of changing locations, but I saw the internal pics on the Best Western app so went in. The lobby is beautiful and completely different than what I first saw. They are in the process of renovating every single room and are bringing rooms online every day.The hallway still had some carpeting going in so there was a tripping hazard there.The King room I had was immaculate. Beautifully re-done. I would definitely revisit if in this part of Houston again.One unique item was I had to call the front desk for the first time ever to ask how to turn the shower own. There is a ring under the tub faucet that you pull down. It was a first for me but the desk was great and stayed on the line while I tried to find it.I liked the breakfast bar option as well for their complementary breakfast. Nice for a solo traveler.Oh and I slept straight through and never heard the highway.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239865-r508142881-Best_Western_Plus_Northwest_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>508142881</t>
+  </si>
+  <si>
+    <t>08/02/2017</t>
+  </si>
+  <si>
+    <t>Don't be put off by the location.</t>
+  </si>
+  <si>
+    <t>The hotel is currently undergoing renovations, so only 10 of 60 rooms are available at this time.  That means the hotel is very quiet.  It is surprisingly quiet at night given its proximity to the freeway.  It has lots of positives...extremely large room, lots of vanity/counter space, a microwave in addition to the fridge, a "clean" remote designed for easy cleaning.  The front desk staff are friendly, helpful and energetic.  The two young ladies were very pleasant to speak with and helpful recommending sights for us to explore  on our off time.  We made good use of our free time because of their suggestions.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>Sawan P, Manager at Best Western Plus Northwest Inn &amp; Suites, responded to this reviewResponded August 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 28, 2017</t>
+  </si>
+  <si>
+    <t>The hotel is currently undergoing renovations, so only 10 of 60 rooms are available at this time.  That means the hotel is very quiet.  It is surprisingly quiet at night given its proximity to the freeway.  It has lots of positives...extremely large room, lots of vanity/counter space, a microwave in addition to the fridge, a "clean" remote designed for easy cleaning.  The front desk staff are friendly, helpful and energetic.  The two young ladies were very pleasant to speak with and helpful recommending sights for us to explore  on our off time.  We made good use of our free time because of their suggestions.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239865-r506661478-Best_Western_Plus_Northwest_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>506661478</t>
+  </si>
+  <si>
+    <t>07/28/2017</t>
+  </si>
+  <si>
+    <t>Houston is a very Humid part of the Country but, the A/C in my room was Better than Great it was exceptional!!. in addition there was a Ceiling fan in my room as well. It was so nice to keep my room very cool and comfortable. Really Nice!!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Sawan P, Manager at Best Western Plus Northwest Inn &amp; Suites, responded to this reviewResponded August 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 2, 2017</t>
+  </si>
+  <si>
+    <t>Houston is a very Humid part of the Country but, the A/C in my room was Better than Great it was exceptional!!. in addition there was a Ceiling fan in my room as well. It was so nice to keep my room very cool and comfortable. Really Nice!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239865-r500877516-Best_Western_Plus_Northwest_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>500877516</t>
+  </si>
+  <si>
+    <t>07/11/2017</t>
+  </si>
+  <si>
+    <t>Staff untrained</t>
+  </si>
+  <si>
+    <t>The rooms/lobby are both gorgeous, however th staff is very unprofessional and untrained on BW procedures and standards. Security sat in a chair out front most of his shift,the night auditor was asleep in a chair at the front desk.I actually had to knock on the door to get in. No one had member Web logins to redeem free nights.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239865-r491238227-Best_Western_Plus_Northwest_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>491238227</t>
+  </si>
+  <si>
+    <t>06/07/2017</t>
+  </si>
+  <si>
+    <t>Construction zone</t>
+  </si>
+  <si>
+    <t>The staff at this hotel are great, but the hotel is being remodeled and the road in front of the hotel is under construction.  It is very difficult to get into and out of this hotel because the on and off ramps are closed for a great distance.  Not the fault of the hotel, but wait until the road and remodeling are finished to stay at this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>Sawan P, Manager at Best Western Plus Northwest Inn &amp; Suites, responded to this reviewResponded June 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 13, 2017</t>
+  </si>
+  <si>
+    <t>The staff at this hotel are great, but the hotel is being remodeled and the road in front of the hotel is under construction.  It is very difficult to get into and out of this hotel because the on and off ramps are closed for a great distance.  Not the fault of the hotel, but wait until the road and remodeling are finished to stay at this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239865-r468418379-Best_Western_Plus_Northwest_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>468418379</t>
+  </si>
+  <si>
+    <t>03/18/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decent hotel but it's a building site! </t>
+  </si>
+  <si>
+    <t>Clean, spacious, very comfortable room and bed and really quiet despite location. Breakfast just about ok ie standard.  But it's right in the middle of the 290 road works. Google maps got lost! Overall good value and the pros outweigh the cons. MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>Sawan P, Manager at Best Western Plus Northwest Inn &amp; Suites, responded to this reviewResponded March 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 24, 2017</t>
+  </si>
+  <si>
+    <t>Clean, spacious, very comfortable room and bed and really quiet despite location. Breakfast just about ok ie standard.  But it's right in the middle of the 290 road works. Google maps got lost! Overall good value and the pros outweigh the cons. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239865-r461160726-Best_Western_Plus_Northwest_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>461160726</t>
+  </si>
+  <si>
+    <t>02/19/2017</t>
+  </si>
+  <si>
+    <t>Skimpy breakfast, cold; hotel doesn't seem like  BW Plus</t>
+  </si>
+  <si>
+    <t>It looks like they put a fresh coat of paint on an old motel. It's not really up to the Best Western Plus standard. They did seem to have bought new mattresses. The bed was great. Nice new furniture too.However, the door came off the closet and we were there for three days and no one fixed it. Also, the HBO never worked, and even though we kept reporting it. No one fixed it.Skimpiest breakfast I have seen at a motel in a long time. No biscuits. No gravy. Just sliced bread and bagels to go with pre-fab omelottes that were cold.Housekeeping didn't replace the in-room coffee after the first day.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Sawan P, Front Office Manager at Best Western Plus Northwest Inn &amp; Suites, responded to this reviewResponded February 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 22, 2017</t>
+  </si>
+  <si>
+    <t>It looks like they put a fresh coat of paint on an old motel. It's not really up to the Best Western Plus standard. They did seem to have bought new mattresses. The bed was great. Nice new furniture too.However, the door came off the closet and we were there for three days and no one fixed it. Also, the HBO never worked, and even though we kept reporting it. No one fixed it.Skimpiest breakfast I have seen at a motel in a long time. No biscuits. No gravy. Just sliced bread and bagels to go with pre-fab omelottes that were cold.Housekeeping didn't replace the in-room coffee after the first day.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239865-r458222131-Best_Western_Plus_Northwest_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>458222131</t>
+  </si>
+  <si>
+    <t>02/08/2017</t>
+  </si>
+  <si>
+    <t>Beautiful hotel/horrible side of town</t>
+  </si>
+  <si>
+    <t>Beautiful hotel, the side of town that it's on is horrible. I wish them the best of luck with their business there, all of the construction is ridiculous. Great breakfast set up, rooms are beautifully decorated.MoreShow less</t>
+  </si>
+  <si>
+    <t>Beautiful hotel, the side of town that it's on is horrible. I wish them the best of luck with their business there, all of the construction is ridiculous. Great breakfast set up, rooms are beautifully decorated.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239865-r454026166-Best_Western_Plus_Northwest_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>454026166</t>
+  </si>
+  <si>
+    <t>01/22/2017</t>
+  </si>
+  <si>
+    <t>Very clean</t>
+  </si>
+  <si>
+    <t>Very nice hotel with nice rooms. They need new pillows. The elevator was a little sketchy. Was able to order food in from room service and that was great. Getting to the hotel was difficult but that was due to road constructionMoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>Very nice hotel with nice rooms. They need new pillows. The elevator was a little sketchy. Was able to order food in from room service and that was great. Getting to the hotel was difficult but that was due to road constructionMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239865-r431638563-Best_Western_Plus_Northwest_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>431638563</t>
+  </si>
+  <si>
+    <t>10/25/2016</t>
+  </si>
+  <si>
+    <t>Excellent Hotel</t>
+  </si>
+  <si>
+    <t>Stayed here for 2 nights, great staff, good breakfast, parking, lift and Wi-Fi. No issues with the hotel at all, everything you need is in the room. Microwave, Iron, AC and a good selection of TV programmes. Not that hard to find even with the roadworks.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Stayed here for 2 nights, great staff, good breakfast, parking, lift and Wi-Fi. No issues with the hotel at all, everything you need is in the room. Microwave, Iron, AC and a good selection of TV programmes. Not that hard to find even with the roadworks.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239865-r427465677-Best_Western_Plus_Northwest_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>427465677</t>
+  </si>
+  <si>
+    <t>10/12/2016</t>
+  </si>
+  <si>
+    <t>A clean &amp; friendly night's stay</t>
+  </si>
+  <si>
+    <t>Just off the freeway, and close to some good restaurants along with a multi-screen theater, which features lounge chair seating. The staff is friendly and helpful, the included breakfast nice, the room comfortable with a good bed. This is not a fancy place, and some say the neighborhood is not the best, but we felt no discomfort and would stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Just off the freeway, and close to some good restaurants along with a multi-screen theater, which features lounge chair seating. The staff is friendly and helpful, the included breakfast nice, the room comfortable with a good bed. This is not a fancy place, and some say the neighborhood is not the best, but we felt no discomfort and would stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239865-r425272537-Best_Western_Plus_Northwest_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>425272537</t>
+  </si>
+  <si>
+    <t>10/04/2016</t>
+  </si>
+  <si>
+    <t>RECOMMENDATION</t>
+  </si>
+  <si>
+    <t>Great value with pool that I had to myself the entire stay.  Morning buffet standard.   This location is very quiet and we chose the location due to close proximity to family.   Clean, convenient, comfortable.MoreShow less</t>
+  </si>
+  <si>
+    <t>Great value with pool that I had to myself the entire stay.  Morning buffet standard.   This location is very quiet and we chose the location due to close proximity to family.   Clean, convenient, comfortable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239865-r398263927-Best_Western_Plus_Northwest_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>398263927</t>
+  </si>
+  <si>
+    <t>07/27/2016</t>
+  </si>
+  <si>
+    <t>Weekend getaway</t>
+  </si>
+  <si>
+    <t>My boyfriend came to visit for the weekend. Everyone at the hotel was friendly and helpful. It recently got a remodel, rooms were nice and clean. I didn't have breakfast there. Plenty of restaurants/fast food restaurants nearby though. Only problem was construction made it hard to find entrance and you had to find ways around it. And construction continued at night during the weekend, the hotel was VERY quiet, so sleeping was not a problem. I would definitely stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Hasu p, General Manager at Best Western Plus Northwest Inn &amp; Suites, responded to this reviewResponded July 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 28, 2016</t>
+  </si>
+  <si>
+    <t>My boyfriend came to visit for the weekend. Everyone at the hotel was friendly and helpful. It recently got a remodel, rooms were nice and clean. I didn't have breakfast there. Plenty of restaurants/fast food restaurants nearby though. Only problem was construction made it hard to find entrance and you had to find ways around it. And construction continued at night during the weekend, the hotel was VERY quiet, so sleeping was not a problem. I would definitely stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239865-r386354725-Best_Western_Plus_Northwest_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>386354725</t>
+  </si>
+  <si>
+    <t>06/27/2016</t>
+  </si>
+  <si>
+    <t>Good hotel, yet some negative occasion happened</t>
+  </si>
+  <si>
+    <t>First of all, that's not my first stay with the Best western in general and in this hotel in particular. I like Best Western chain for decent breakfast, spacy and clean rooms. This particular hotel is very decent and my review would have been 5* for sure unless the following happend: I left a model of plane I purchased for my firend in a room when I was leaving. Nobody contacted me regarding it. I knew I'll be back soone enough but in several weeks when I came the plane wassn't in the lost&amp;found what means one or another: 1) somebody's taken it for he/herself what means staff isn't trustworthy; 2) Nobody cared about my lost property and just thrown it away what means staff is careless. I'll probably choose Best western for my next trip but I'll think twice before choosing this particular one.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Hasu p, General Manager at Best Western Plus Northwest Inn &amp; Suites, responded to this reviewResponded June 30, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 30, 2016</t>
+  </si>
+  <si>
+    <t>First of all, that's not my first stay with the Best western in general and in this hotel in particular. I like Best Western chain for decent breakfast, spacy and clean rooms. This particular hotel is very decent and my review would have been 5* for sure unless the following happend: I left a model of plane I purchased for my firend in a room when I was leaving. Nobody contacted me regarding it. I knew I'll be back soone enough but in several weeks when I came the plane wassn't in the lost&amp;found what means one or another: 1) somebody's taken it for he/herself what means staff isn't trustworthy; 2) Nobody cared about my lost property and just thrown it away what means staff is careless. I'll probably choose Best western for my next trip but I'll think twice before choosing this particular one.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239865-r384099810-Best_Western_Plus_Northwest_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>384099810</t>
+  </si>
+  <si>
+    <t>06/19/2016</t>
+  </si>
+  <si>
+    <t>comfortable, clean, and quiet</t>
+  </si>
+  <si>
+    <t>Great hotel for the money.  We had a large room with a King bed and it was very comfortable with a sitting area, a small refrigerator, and a microwave.  It was a clean, quiet and comfortable room.  We have the breakfast on Sunday morning.  They had lots of choices and the food we ate was tasty.  Our only compliant was that the entry and hallways did not seem to be air conditioned and it was hot and humid in Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>Great hotel for the money.  We had a large room with a King bed and it was very comfortable with a sitting area, a small refrigerator, and a microwave.  It was a clean, quiet and comfortable room.  We have the breakfast on Sunday morning.  They had lots of choices and the food we ate was tasty.  Our only compliant was that the entry and hallways did not seem to be air conditioned and it was hot and humid in Houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239865-r381879828-Best_Western_Plus_Northwest_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>381879828</t>
+  </si>
+  <si>
+    <t>06/12/2016</t>
+  </si>
+  <si>
+    <t>Fit for purpose</t>
+  </si>
+  <si>
+    <t>We only used this as we were arriving late in Houston and it was too late to drive far after a flight. It was a good hotel in line with other BWs we have stayed. There were a few restaurants in walking distance, but there was not much else going for the location as it is obviously a stop off point for travellers like us who continue their journey next day. Breakfast was pleasant as we luckily chose a good time when there was no one else there!MoreShow less</t>
+  </si>
+  <si>
+    <t>We only used this as we were arriving late in Houston and it was too late to drive far after a flight. It was a good hotel in line with other BWs we have stayed. There were a few restaurants in walking distance, but there was not much else going for the location as it is obviously a stop off point for travellers like us who continue their journey next day. Breakfast was pleasant as we luckily chose a good time when there was no one else there!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239865-r380460104-Best_Western_Plus_Northwest_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>380460104</t>
+  </si>
+  <si>
+    <t>06/06/2016</t>
+  </si>
+  <si>
+    <t>Pleasant Experience</t>
+  </si>
+  <si>
+    <t>Wonderful stay in a beautiful, clean hotel. Breakfast was enjoyable. Convenient to the Hobby Center, and many restaurants. Construction made it a little difficult to drive, but it was worth getting to this Best Western.MoreShow less</t>
+  </si>
+  <si>
+    <t>Wonderful stay in a beautiful, clean hotel. Breakfast was enjoyable. Convenient to the Hobby Center, and many restaurants. Construction made it a little difficult to drive, but it was worth getting to this Best Western.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239865-r376939848-Best_Western_Plus_Northwest_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>376939848</t>
+  </si>
+  <si>
+    <t>05/26/2016</t>
+  </si>
+  <si>
+    <t>Overall</t>
+  </si>
+  <si>
+    <t>Hotel was clean.  Would not choose if have business dowtown.  Would get closer.  Exit signage was not very good.  Entrance sign should be raised about two feet  so that it could be seen easier.  Negotiations with neighbor hotel for aan arrow sign on their wall would be helpful.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Hotel was clean.  Would not choose if have business dowtown.  Would get closer.  Exit signage was not very good.  Entrance sign should be raised about two feet  so that it could be seen easier.  Negotiations with neighbor hotel for aan arrow sign on their wall would be helpful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239865-r357957763-Best_Western_Plus_Northwest_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>357957763</t>
+  </si>
+  <si>
+    <t>03/23/2016</t>
+  </si>
+  <si>
+    <t>Would stay again and again...</t>
+  </si>
+  <si>
+    <t>This was surprisingly pleasant experience! I normally stay at Hilton properties but needed an inexpensive place to stay for a few days. I made a reservation with some apprehension because of my bias for Hilton properties, knowing they are different classifications of hotels. However, I would stay at this hotel again, again and again...the staff was friendly, the room I stayed in was clean, the lobby was nice and they serve breakfast although I didn't make it down in time to eat. My recommendation: give it a try! Excellent value!!!</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239865-r356933149-Best_Western_Plus_Northwest_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>356933149</t>
+  </si>
+  <si>
+    <t>03/19/2016</t>
+  </si>
+  <si>
+    <t>good time</t>
+  </si>
+  <si>
+    <t>stayed here for a visit with my cousin and  show at Revention Music Hall, very close to downtown. nice clean room newly updated only stayed for one night but worth the price. cant wait to visit again. thank you</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239865-r354000298-Best_Western_Plus_Northwest_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>354000298</t>
+  </si>
+  <si>
+    <t>03/08/2016</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>Great experience.  Well maintained location.  Great staff.  Great looking rooms for a reasonable price.  The rooms made me feel right at home.  I wish the showers had a little more pressure though.  Breakfast was good.  The fitness room was pleasing.  The equipment was cleaned and well maintained.  The fitness room could use a little more space though, and maybe some free weights.  Overall it served its purpose and got me the workout I needed to end the night.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239865-r348083593-Best_Western_Plus_Northwest_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>348083593</t>
+  </si>
+  <si>
+    <t>02/15/2016</t>
+  </si>
+  <si>
+    <t>Nice Hotel</t>
+  </si>
+  <si>
+    <t>This is a nice hotel.  I was a little disappointed to find out that my hotel room only had a jetted tub and not a jacuzzi tub.  I wish this had been clarified when i made the reservation.  I would have stayed somewhere else.  Also, the jets in the tub did not even work.  We did not report this until checkout, as we were not interested in changing rooms as we had already unpacked and settled in.  We told the front desk clerk at checkout that the jets were not functioning and she apologized.  I felt like at least we should have gotten credited back the difference in price between the regular room and jetted room since the jets didn't work.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>This is a nice hotel.  I was a little disappointed to find out that my hotel room only had a jetted tub and not a jacuzzi tub.  I wish this had been clarified when i made the reservation.  I would have stayed somewhere else.  Also, the jets in the tub did not even work.  We did not report this until checkout, as we were not interested in changing rooms as we had already unpacked and settled in.  We told the front desk clerk at checkout that the jets were not functioning and she apologized.  I felt like at least we should have gotten credited back the difference in price between the regular room and jetted room since the jets didn't work.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239865-r344424021-Best_Western_Plus_Northwest_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>344424021</t>
+  </si>
+  <si>
+    <t>02/01/2016</t>
+  </si>
+  <si>
+    <t>Great stay at a great price</t>
+  </si>
+  <si>
+    <t>The hotel has been renovated and the interior is like new.  The room, bed and flooring was practically brand new.  It is tricky to get to this from the freeway as the sign is missing.  The construction on the highway is a nuisance.</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239865-r343701690-Best_Western_Plus_Northwest_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>343701690</t>
+  </si>
+  <si>
+    <t>01/29/2016</t>
+  </si>
+  <si>
+    <t>Best Western plus Houston</t>
+  </si>
+  <si>
+    <t>Very good experience. Their staff were exceptional. They were courteous, had good local knowledge to offer. Plenty of parking. Good value for money. The internet connection worked very well. Their breakfast could have been better.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239865-r312565623-Best_Western_Plus_Northwest_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>312565623</t>
+  </si>
+  <si>
+    <t>09/21/2015</t>
+  </si>
+  <si>
+    <t>Best Western, Great Place to Stay</t>
+  </si>
+  <si>
+    <t>The hotel service was very good.  I did  have trouble entering the  parking area for there is road construction, and not enough signs to find the entrance, which is narrow and in the access road which required exiting in one further exit from US 290 in order to get there.</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239865-r311160524-Best_Western_Plus_Northwest_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>311160524</t>
+  </si>
+  <si>
+    <t>09/16/2015</t>
+  </si>
+  <si>
+    <t>End of day of sales with bugRIGHT</t>
+  </si>
+  <si>
+    <t>A little hard to get to but worth it. Front desk clerk very nice. We checked in at 8.00  and after a long day of sales with the bugRIGHT Co. a good night's sleep would be great.  Best Western did it. Bed was comfortable room was clean and perfect. We stay at a lot of Best Western's this one is worth it.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239865-r310389378-Best_Western_Plus_Northwest_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>310389378</t>
+  </si>
+  <si>
+    <t>09/14/2015</t>
+  </si>
+  <si>
+    <t>A Good Value - Located Well</t>
+  </si>
+  <si>
+    <t>We have stayed at this hotel for two trips, this year. I generally like to stay at a Best Western hotel because they seem to be more caring and cared for than the other big chains. This hotel is clean, comfortable, pretty, and the staff have always been helpful, courteous and amenable. Breakfast is basic, with an egg dish, potato, meat, cereals, waffle, a fruit, and pastry. Coffee is available 24/7 and the hotel also has some snacks for sale in the lobby. They have a work out room, outdoor pool (none of which we used), computer area. This hotel is located very close to the central approach to Houston, with freeway access to the 610 Loop which can get you around the city to any destination, including The Galleria. If we travel back to Houston, we will stay here, again.MoreShow less</t>
+  </si>
+  <si>
+    <t>We have stayed at this hotel for two trips, this year. I generally like to stay at a Best Western hotel because they seem to be more caring and cared for than the other big chains. This hotel is clean, comfortable, pretty, and the staff have always been helpful, courteous and amenable. Breakfast is basic, with an egg dish, potato, meat, cereals, waffle, a fruit, and pastry. Coffee is available 24/7 and the hotel also has some snacks for sale in the lobby. They have a work out room, outdoor pool (none of which we used), computer area. This hotel is located very close to the central approach to Houston, with freeway access to the 610 Loop which can get you around the city to any destination, including The Galleria. If we travel back to Houston, we will stay here, again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239865-r287497138-Best_Western_Plus_Northwest_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>287497138</t>
+  </si>
+  <si>
+    <t>07/09/2015</t>
+  </si>
+  <si>
+    <t>Can't Get Better!</t>
+  </si>
+  <si>
+    <t>As the owner of a highly rated hotel, I highly and enthusiastically recommend Best Western Plus. It is clean, quiet, and comfortable, with superior service. The staff is helpful and friendly. It is an excellent value for your money. I cannot think of one thing they could do better.</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239865-r287082782-Best_Western_Plus_Northwest_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>287082782</t>
+  </si>
+  <si>
+    <t>07/08/2015</t>
+  </si>
+  <si>
+    <t>Shop around</t>
+  </si>
+  <si>
+    <t>This hotel presents well online, however; upon arrival one may be surprised.  Shop carefully, as the has a entire 3rd floor , but it was closed, the second floor seemed like a residence inn (noisy) so plan to stay on the 2nd floor. The firs floor rooms seem desolate, problems with cable, noise, and thermostats hanging from the wall with visible hole.. Evening/night staff unprofessional and not a happy employee. AM staff  a ok... This for $50.00, !??</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239865-r282532125-Best_Western_Plus_Northwest_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>282532125</t>
+  </si>
+  <si>
+    <t>06/23/2015</t>
+  </si>
+  <si>
+    <t>50 Year Anniversary Trip To See America</t>
+  </si>
+  <si>
+    <t>We stayed in Houston because we wanted to see the Johnson Space Museum and related Houston Control Center, and to see the various space vehicles involved.  It was really awesome to lay hands upon the equipment of mankind's success. Best Western helped us to enjoy this adventure affordably and comfortably.</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239865-r271691349-Best_Western_Plus_Northwest_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>271691349</t>
+  </si>
+  <si>
+    <t>05/12/2015</t>
+  </si>
+  <si>
+    <t>A good place to stop for the night</t>
+  </si>
+  <si>
+    <t>I was on the fourth floor and I had to call downstairs to let them know about the potent, possible mildew smell that seemed like it was coming from the carpet in the hallway.  Thankfully, my room did not smell like it, but it is a health concern, I don't think they want people to endure that smell, especially those that clean up the room after we have checked out.  Other than that, I had a decent stay and the receptionist was very friendly.</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239865-r267629454-Best_Western_Plus_Northwest_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>267629454</t>
+  </si>
+  <si>
+    <t>04/23/2015</t>
+  </si>
+  <si>
+    <t>Diamond in the rough</t>
+  </si>
+  <si>
+    <t>This hotel is in a bit of a dirty area, and I was a bit nervous when I pulled up. Fortunately, it lived up to the standards of a Best Western PLUS. The hotel and rooms were very clean. AC worked great and it was nice and quite. A lot of great places to eat nearby as well. I think it is an older hotel, but you can hardly tell because they have done such a great job with room updates that it feels modern.My only complaint is that the large flat screen TVs in the rooms have the brightness/backlight set to zero so its very difficult to see the TV in normal light. I assume this is to save energy (money), but I would rather be able to see the TV. I recommend at least setting the backlight above zero.I will return if I need to visit the area again.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>This hotel is in a bit of a dirty area, and I was a bit nervous when I pulled up. Fortunately, it lived up to the standards of a Best Western PLUS. The hotel and rooms were very clean. AC worked great and it was nice and quite. A lot of great places to eat nearby as well. I think it is an older hotel, but you can hardly tell because they have done such a great job with room updates that it feels modern.My only complaint is that the large flat screen TVs in the rooms have the brightness/backlight set to zero so its very difficult to see the TV in normal light. I assume this is to save energy (money), but I would rather be able to see the TV. I recommend at least setting the backlight above zero.I will return if I need to visit the area again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239865-r260655991-Best_Western_Plus_Northwest_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>260655991</t>
+  </si>
+  <si>
+    <t>03/19/2015</t>
+  </si>
+  <si>
+    <t>Great Value</t>
+  </si>
+  <si>
+    <t>Property is modern, up to date and comfortable.  Rooms are quiet and breakfast is better than average.  Some what difficult to find the entrance off of the feeder road (the first time in the dark) but it  but  worth the effort.</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239865-r237508229-Best_Western_Plus_Northwest_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>237508229</t>
+  </si>
+  <si>
+    <t>11/01/2014</t>
+  </si>
+  <si>
+    <t>VG Best Wextern</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel several times. Always very good, clean tidy, and helpful staff. Value was better a few years ago, as prices have inceased above average which have taken it into a more expensive hotel group, where it does not fare so well.</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239865-r235475879-Best_Western_Plus_Northwest_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>235475879</t>
+  </si>
+  <si>
+    <t>10/20/2014</t>
+  </si>
+  <si>
+    <t>clearly astroturfed</t>
+  </si>
+  <si>
+    <t>A/C was not working, no screen in window.  backs to a junkyard with guard dogs barking late into the evening.  Fixtures were loose in the shower.  Dirt from previous guests in the room.  Not terrible, but way overrated.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239865-r234657226-Best_Western_Plus_Northwest_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>234657226</t>
+  </si>
+  <si>
+    <t>10/15/2014</t>
+  </si>
+  <si>
+    <t>Most Unwelcoming Hotel Ever</t>
+  </si>
+  <si>
+    <t>Despite being in what appears to be a dicey neighborhood it is a nice property. It is very clean and nicely appointed. The housekeeping and breakfast area staff are doing a great job. But the front desk staff is simply awful. As we checked in the young man at the desk was on the phone the whole time, apparently with a friend, complaining about how his boss would not agree to give him certain dates off. At other times there were two different women who were at the front desk; both were stone-faced, unfriendly and at two different times when I asked each of them for something I got a sullen look. Never a "Good morning" or any acknowledgement whatever of our existence until checkout, and I believe the man who checked us out was probably the owner. Either this from desk staff needs extensive training or several of them need to be replaced.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>Despite being in what appears to be a dicey neighborhood it is a nice property. It is very clean and nicely appointed. The housekeeping and breakfast area staff are doing a great job. But the front desk staff is simply awful. As we checked in the young man at the desk was on the phone the whole time, apparently with a friend, complaining about how his boss would not agree to give him certain dates off. At other times there were two different women who were at the front desk; both were stone-faced, unfriendly and at two different times when I asked each of them for something I got a sullen look. Never a "Good morning" or any acknowledgement whatever of our existence until checkout, and I believe the man who checked us out was probably the owner. Either this from desk staff needs extensive training or several of them need to be replaced.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239865-r229140444-Best_Western_Plus_Northwest_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>229140444</t>
+  </si>
+  <si>
+    <t>09/15/2014</t>
+  </si>
+  <si>
+    <t>Total Comfort at a Comfortable Price</t>
+  </si>
+  <si>
+    <t>When I have to travel on business in Houston my first choice of hotels is Best Western Plus.  They have an excellent and caring staff and the rooms are well furnished.  I always feel at home.  The bed is very comfortable which aids in a good night's sleep.  I would recommend this hotel to those who travel for business or pleasure.  The quality exceeds the price in my opinion.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239865-r223979830-Best_Western_Plus_Northwest_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>223979830</t>
+  </si>
+  <si>
+    <t>08/23/2014</t>
+  </si>
+  <si>
+    <t>The Best Place to stay</t>
+  </si>
+  <si>
+    <t>I had a wonderful time, nothing was out of place and even when I had a do not disturb sign on my door until 11am, they still came in and made the bed and freshend the room.  Kudos to all staff.  Will be staying again.</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239865-r220592944-Best_Western_Plus_Northwest_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>220592944</t>
+  </si>
+  <si>
+    <t>08/08/2014</t>
+  </si>
+  <si>
+    <t>Visiting Family</t>
+  </si>
+  <si>
+    <t>Chose Best Western Plus because it was 2 miles from family I was visiting and the rates were reasonable compared to nearby hotels.  The surprise was the quality of the property and pleasantness of the staff. Was my first stay in a Best Western Plus, but will not be my last.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239865-r212561685-Best_Western_Plus_Northwest_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>212561685</t>
+  </si>
+  <si>
+    <t>06/28/2014</t>
+  </si>
+  <si>
+    <t>Best Western Plus</t>
+  </si>
+  <si>
+    <t>Nice newer hotel kept really well, the rooms were clean and nice, only complaint was the pillows, they were dreadful, must have come from "lumps are us", for this price you'd expect better quality. Shame it spoilt a good stay.</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239865-r211605074-Best_Western_Plus_Northwest_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>211605074</t>
+  </si>
+  <si>
+    <t>06/22/2014</t>
+  </si>
+  <si>
+    <t>Houston Trip</t>
+  </si>
+  <si>
+    <t>Average Hotel....have stayed at previously..would stay again...location driven...need healther options on breakfast foods...better quality coffee....bathroom amenities problem on this trip, but have not been on other stays at this location</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239865-r210677116-Best_Western_Plus_Northwest_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>210677116</t>
+  </si>
+  <si>
+    <t>06/16/2014</t>
+  </si>
+  <si>
+    <t>Poor Management</t>
+  </si>
+  <si>
+    <t>When I made the reservation I was given a disounted rate of 109.00 per day.   When we arrived, the TV in the room did not work and had to be moved to another room late at night.  The TV in the other room would unexpectedly stop working as if it did not have enough cable signal.  The front desk receptionist initally quoted me a 10.00 discount for our inconvenience, but was acutally disounted $9.00. The daily rate was now 100.00. The night before departure, I went down stairs to turn in the Tax State exemption form and to confirm  our daily rate and the receptionist quoted me a different price.  A price of $90.00 per day.  The day of the departure, I was billed a total of $360.00 for 4 nights.  The day after my stay I looked at my account and noticed that the 360.00 had been credited and a charge of $483.00 was billed.  I called and spoke to management and he said that the receptionist  had made a mistake and took it upon themselves to fix the problem without giving me any notice of the change.  When I questioned him about why I was not notified of the change he could not give me an answer.  All he kept saying was that I was discounted $20.00.   I am so disappointed with the way they handled the situation.  I feel that if I was charged a price they...When I made the reservation I was given a disounted rate of 109.00 per day.   When we arrived, the TV in the room did not work and had to be moved to another room late at night.  The TV in the other room would unexpectedly stop working as if it did not have enough cable signal.  The front desk receptionist initally quoted me a 10.00 discount for our inconvenience, but was acutally disounted $9.00. The daily rate was now 100.00. The night before departure, I went down stairs to turn in the Tax State exemption form and to confirm  our daily rate and the receptionist quoted me a different price.  A price of $90.00 per day.  The day of the departure, I was billed a total of $360.00 for 4 nights.  The day after my stay I looked at my account and noticed that the 360.00 had been credited and a charge of $483.00 was billed.  I called and spoke to management and he said that the receptionist  had made a mistake and took it upon themselves to fix the problem without giving me any notice of the change.  When I questioned him about why I was not notified of the change he could not give me an answer.  All he kept saying was that I was discounted $20.00.   I am so disappointed with the way they handled the situation.  I feel that if I was charged a price they should have respected it and delt with it another way.  Proper training of the receptionist at the front desk could have been one way.  How unprofessional of them to go back and charge me full price without notifiying me and making it out be as if it was my fault.  With this being said, I will no longer do business with Best Western Plus on Northwest in Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>When I made the reservation I was given a disounted rate of 109.00 per day.   When we arrived, the TV in the room did not work and had to be moved to another room late at night.  The TV in the other room would unexpectedly stop working as if it did not have enough cable signal.  The front desk receptionist initally quoted me a 10.00 discount for our inconvenience, but was acutally disounted $9.00. The daily rate was now 100.00. The night before departure, I went down stairs to turn in the Tax State exemption form and to confirm  our daily rate and the receptionist quoted me a different price.  A price of $90.00 per day.  The day of the departure, I was billed a total of $360.00 for 4 nights.  The day after my stay I looked at my account and noticed that the 360.00 had been credited and a charge of $483.00 was billed.  I called and spoke to management and he said that the receptionist  had made a mistake and took it upon themselves to fix the problem without giving me any notice of the change.  When I questioned him about why I was not notified of the change he could not give me an answer.  All he kept saying was that I was discounted $20.00.   I am so disappointed with the way they handled the situation.  I feel that if I was charged a price they...When I made the reservation I was given a disounted rate of 109.00 per day.   When we arrived, the TV in the room did not work and had to be moved to another room late at night.  The TV in the other room would unexpectedly stop working as if it did not have enough cable signal.  The front desk receptionist initally quoted me a 10.00 discount for our inconvenience, but was acutally disounted $9.00. The daily rate was now 100.00. The night before departure, I went down stairs to turn in the Tax State exemption form and to confirm  our daily rate and the receptionist quoted me a different price.  A price of $90.00 per day.  The day of the departure, I was billed a total of $360.00 for 4 nights.  The day after my stay I looked at my account and noticed that the 360.00 had been credited and a charge of $483.00 was billed.  I called and spoke to management and he said that the receptionist  had made a mistake and took it upon themselves to fix the problem without giving me any notice of the change.  When I questioned him about why I was not notified of the change he could not give me an answer.  All he kept saying was that I was discounted $20.00.   I am so disappointed with the way they handled the situation.  I feel that if I was charged a price they should have respected it and delt with it another way.  Proper training of the receptionist at the front desk could have been one way.  How unprofessional of them to go back and charge me full price without notifiying me and making it out be as if it was my fault.  With this being said, I will no longer do business with Best Western Plus on Northwest in Houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239865-r205536685-Best_Western_Plus_Northwest_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>205536685</t>
+  </si>
+  <si>
+    <t>05/13/2014</t>
+  </si>
+  <si>
+    <t>business or pleasure</t>
+  </si>
+  <si>
+    <t>No matter how your trip happened this hotel goes above and beyond, rooms are very clean the staff goes out of its way to make your stay comfortable near down town airport is a reasonable drive, breakfast is hot clean service good selection, internet works very well; no matter what I will stay again and yes I do recommend this hotel.</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239865-r204538359-Best_Western_Plus_Northwest_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>204538359</t>
+  </si>
+  <si>
+    <t>05/07/2014</t>
+  </si>
+  <si>
+    <t>Super place</t>
+  </si>
+  <si>
+    <t>The staff was great.  Housekeeping was excellent.  The lobby area was very clean and the rooms were large and spacious. The handicapped bathroom was very well laid out.   The breakfast was very good.  There were omelettes several days and the food was hot plentiful</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239865-r199343929-Best_Western_Plus_Northwest_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>199343929</t>
+  </si>
+  <si>
+    <t>03/30/2014</t>
+  </si>
+  <si>
+    <t>NW Houston Value</t>
+  </si>
+  <si>
+    <t>This hotel though a little dated, was very clean and rooms updated. Bed was extremely comfortable, washroom was spotless with good quality ammenities. Breakfast was average, small area and limited breakfast choices, however, had everything I needed. Price was very reasonable and hotel was very quiet. Would definately stay here again.</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239865-r197799617-Best_Western_Plus_Northwest_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>197799617</t>
+  </si>
+  <si>
+    <t>03/17/2014</t>
+  </si>
+  <si>
+    <t>nice accomodations</t>
+  </si>
+  <si>
+    <t>The hotel itself is great! Very clean rooms and central areas. Staff courteous and helpful. Was convenient for me as my business work was only a half mile away, but traveling in the evening is awful! Traffic is at a standstill in the area until after 7:00, but that isn't the fault of the hotel. We did lose power at the hotel twice. This was not an area issue; the hotel was the only building without power, so it has to be something with the service to the hotel. Staff said this had happened before.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ajay A, Manager at Best Western Plus Northwest Inn &amp; Suites, responded to this reviewResponded March 19, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 19, 2014</t>
+  </si>
+  <si>
+    <t>The hotel itself is great! Very clean rooms and central areas. Staff courteous and helpful. Was convenient for me as my business work was only a half mile away, but traveling in the evening is awful! Traffic is at a standstill in the area until after 7:00, but that isn't the fault of the hotel. We did lose power at the hotel twice. This was not an area issue; the hotel was the only building without power, so it has to be something with the service to the hotel. Staff said this had happened before.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239865-r197499889-Best_Western_Plus_Northwest_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>197499889</t>
+  </si>
+  <si>
+    <t>03/15/2014</t>
+  </si>
+  <si>
+    <t>First Stay</t>
+  </si>
+  <si>
+    <t>Took a chance on this facility as it was new and close to the office I was visiting.  Location for being close to downtown and out 290 N was pretty good.  Staff was extremely friendly and very eager to assist.Room was spacious and clean; decent bath amenities and a cold fridge and good microwave.  Wifi was pretty quick and very stable.One deduct on the facility.  On Tuesday night while trying to finish and send some documents, the power went out.  Not the area, just the facility.  After three hours, the power came back on and I was able to finish around 1:30 a.m. with a 7:30 a.m. meeting.  Around 4 a.m., the power went off again and was still off went I left for the day.Again, the staff was very eager to make things as comfortable as possible, however, I was surprised when I checked out two days later that no adjustment had been made to the bill.  More than a bit disappointed.Return to the same office for four days this week and I'll give them another shot.MoreShow less</t>
+  </si>
+  <si>
+    <t>Took a chance on this facility as it was new and close to the office I was visiting.  Location for being close to downtown and out 290 N was pretty good.  Staff was extremely friendly and very eager to assist.Room was spacious and clean; decent bath amenities and a cold fridge and good microwave.  Wifi was pretty quick and very stable.One deduct on the facility.  On Tuesday night while trying to finish and send some documents, the power went out.  Not the area, just the facility.  After three hours, the power came back on and I was able to finish around 1:30 a.m. with a 7:30 a.m. meeting.  Around 4 a.m., the power went off again and was still off went I left for the day.Again, the staff was very eager to make things as comfortable as possible, however, I was surprised when I checked out two days later that no adjustment had been made to the bill.  More than a bit disappointed.Return to the same office for four days this week and I'll give them another shot.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239865-r197449952-Best_Western_Plus_Northwest_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>197449952</t>
+  </si>
+  <si>
+    <t>03/14/2014</t>
+  </si>
+  <si>
+    <t>Great stay!</t>
+  </si>
+  <si>
+    <t>We thoroughly enjoyed our trip to this hotel. They allowed us to check in a little early because our toddler son needed a nap. The room was spacious and very clean. My only complaint was the lack of water pressure in the shower, but we had a detachable shower head that was probably not in very room.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ajay A, Manager at Best Western Plus Northwest Inn &amp; Suites, responded to this reviewResponded March 15, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 15, 2014</t>
+  </si>
+  <si>
+    <t>We thoroughly enjoyed our trip to this hotel. They allowed us to check in a little early because our toddler son needed a nap. The room was spacious and very clean. My only complaint was the lack of water pressure in the shower, but we had a detachable shower head that was probably not in very room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239865-r197240074-Best_Western_Plus_Northwest_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>197240074</t>
+  </si>
+  <si>
+    <t>03/12/2014</t>
+  </si>
+  <si>
+    <t>I would definately recommend</t>
+  </si>
+  <si>
+    <t>Very nice and clean hotel. Bed was comfortable. We didn't have the chance to try the breakfast, but I noticed that they had a nice selection to choose from. Parking lot and entire hotel was neat and tidy.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ajay A, Manager at Best Western Plus Northwest Inn &amp; Suites, responded to this reviewResponded March 14, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 14, 2014</t>
+  </si>
+  <si>
+    <t>Very nice and clean hotel. Bed was comfortable. We didn't have the chance to try the breakfast, but I noticed that they had a nice selection to choose from. Parking lot and entire hotel was neat and tidy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239865-r194803242-Best_Western_Plus_Northwest_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>194803242</t>
+  </si>
+  <si>
+    <t>02/18/2014</t>
+  </si>
+  <si>
+    <t>Personal opinion</t>
+  </si>
+  <si>
+    <t>Staff friendly and accommodating.  Room was clean &amp; comfortable.  Lobby in a mess (construction), but not a problem.  Plenty of towels is a PLUS.  Price was reasonable.  Coffee maker did not work, but checked out before staff could have replaced it.  Location is O.K., but marqee hard to see until you are upon it.  B'fast was good.  Could have been a little hotter.  Enjoyable stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>Ajay A, Manager at Best Western Plus Northwest Inn &amp; Suites, responded to this reviewResponded February 23, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 23, 2014</t>
+  </si>
+  <si>
+    <t>Staff friendly and accommodating.  Room was clean &amp; comfortable.  Lobby in a mess (construction), but not a problem.  Plenty of towels is a PLUS.  Price was reasonable.  Coffee maker did not work, but checked out before staff could have replaced it.  Location is O.K., but marqee hard to see until you are upon it.  B'fast was good.  Could have been a little hotter.  Enjoyable stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239865-r194105597-Best_Western_Plus_Northwest_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>194105597</t>
+  </si>
+  <si>
+    <t>02/14/2014</t>
+  </si>
+  <si>
+    <t>Good stay...</t>
+  </si>
+  <si>
+    <t>We were very pleased with our stay from check-in to check-out.  Our room was very roomy and spotlessly clean.  It was so quiet.  I really liked that the sheets fit the bed and didn't end up in a crumpled mess.  Breakfast was the typical menu and the breakfast area was kept very neat and clean.  The employees that we interacted with were all friendly and helpful.  Even the pavement outside the door was scrubbed and cleaned each day we were there.  We would definitely stay here again if in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ajay A, Manager at Best Western Plus Northwest Inn &amp; Suites, responded to this reviewResponded February 16, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 16, 2014</t>
+  </si>
+  <si>
+    <t>We were very pleased with our stay from check-in to check-out.  Our room was very roomy and spotlessly clean.  It was so quiet.  I really liked that the sheets fit the bed and didn't end up in a crumpled mess.  Breakfast was the typical menu and the breakfast area was kept very neat and clean.  The employees that we interacted with were all friendly and helpful.  Even the pavement outside the door was scrubbed and cleaned each day we were there.  We would definitely stay here again if in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239865-r191293927-Best_Western_Plus_Northwest_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>191293927</t>
+  </si>
+  <si>
+    <t>01/18/2014</t>
+  </si>
+  <si>
+    <t>Friendly staff, went out of their way to make sure my needs were met. Management is always courteous and front  desk makes you feel like you belong there. The hotel is extremely clean and room was great.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>Ajay A, Manager at Best Western Plus Northwest Inn &amp; Suites, responded to this reviewResponded January 20, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 20, 2014</t>
+  </si>
+  <si>
+    <t>Friendly staff, went out of their way to make sure my needs were met. Management is always courteous and front  desk makes you feel like you belong there. The hotel is extremely clean and room was great.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239865-r190233565-Best_Western_Plus_Northwest_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>190233565</t>
+  </si>
+  <si>
+    <t>01/08/2014</t>
+  </si>
+  <si>
+    <t>Happy Camper</t>
+  </si>
+  <si>
+    <t>Best Western is my hotel of preference across the USA.  It is always clean and quite.  The personnel are helpful and cheerful.  I like that they have the fitness center.  Since I am away from home so much it's nice to be able to get in some excercise.  I have tried other chains but I always come back to Best Western.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>Ajay A, Manager at Best Western Plus Northwest Inn &amp; Suites, responded to this reviewResponded January 9, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 9, 2014</t>
+  </si>
+  <si>
+    <t>Best Western is my hotel of preference across the USA.  It is always clean and quite.  The personnel are helpful and cheerful.  I like that they have the fitness center.  Since I am away from home so much it's nice to be able to get in some excercise.  I have tried other chains but I always come back to Best Western.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239865-r189294167-Best_Western_Plus_Northwest_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>189294167</t>
+  </si>
+  <si>
+    <t>01/01/2014</t>
+  </si>
+  <si>
+    <t>Worthwhile stay</t>
+  </si>
+  <si>
+    <t>The staff is knowledge, helpful, thoughtful.The room and building are clean.  The breakfast had a good variety of hot and clean selections. However, the omelet, sausage, and bacon were cool. Not bad enough to not eat or report.  Good value and quiet place to stay which is convenient to highways , gas, eating and some shopping.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ajay A, Manager at Best Western Plus Northwest Inn &amp; Suites, responded to this reviewResponded January 3, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 3, 2014</t>
+  </si>
+  <si>
+    <t>The staff is knowledge, helpful, thoughtful.The room and building are clean.  The breakfast had a good variety of hot and clean selections. However, the omelet, sausage, and bacon were cool. Not bad enough to not eat or report.  Good value and quiet place to stay which is convenient to highways , gas, eating and some shopping.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239865-r184432106-Best_Western_Plus_Northwest_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>184432106</t>
+  </si>
+  <si>
+    <t>11/11/2013</t>
+  </si>
+  <si>
+    <t>Excellent, but...</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for three nights and for most of the time it was most enjoyable. The rooms are spacious, clean and tidy and well maintained. Breakfast was well presented and there was plenty of choice. Wifi was stable and quick. There are plenty of restaurants with a short drive. Reception was as helpful as could be, but our room was next to the conference room where there is an external fan unit that on the third night kept starting and stopping quite noisily and disturbed our sleep! In fairness to the receptionist, whilst she couldn't stop the noise she offered to change our room. Enjoy the hotel but ask for a room away from the conference room!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>HasuP_12, Manager at Best Western Plus Northwest Inn &amp; Suites, responded to this reviewResponded November 13, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 13, 2013</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for three nights and for most of the time it was most enjoyable. The rooms are spacious, clean and tidy and well maintained. Breakfast was well presented and there was plenty of choice. Wifi was stable and quick. There are plenty of restaurants with a short drive. Reception was as helpful as could be, but our room was next to the conference room where there is an external fan unit that on the third night kept starting and stopping quite noisily and disturbed our sleep! In fairness to the receptionist, whilst she couldn't stop the noise she offered to change our room. Enjoy the hotel but ask for a room away from the conference room!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239865-r180545936-Best_Western_Plus_Northwest_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>180545936</t>
+  </si>
+  <si>
+    <t>10/10/2013</t>
+  </si>
+  <si>
+    <t>After All these Years</t>
+  </si>
+  <si>
+    <t>First time stay at this hotel on Northwest Highway. Convenient, very comfortable, plenty of space, plenty of outlets for charging devices, strong and stable Wi-Fi, really good breakfast. Very well kept property. Friendly, helpful staff.  Lots of food options and shopping within easy driving distance.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>HasuP_12, Manager at Best Western Plus Northwest Inn &amp; Suites, responded to this reviewResponded October 20, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 20, 2013</t>
+  </si>
+  <si>
+    <t>First time stay at this hotel on Northwest Highway. Convenient, very comfortable, plenty of space, plenty of outlets for charging devices, strong and stable Wi-Fi, really good breakfast. Very well kept property. Friendly, helpful staff.  Lots of food options and shopping within easy driving distance.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239865-r179777308-Best_Western_Plus_Northwest_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>179777308</t>
+  </si>
+  <si>
+    <t>10/04/2013</t>
+  </si>
+  <si>
+    <t>Wonderful hotel</t>
+  </si>
+  <si>
+    <t>What a beautiful hotel and great looking room! Mid-week happy hour was a great idea.  And a hot breakfast every morning was a bonus.  Close to great restaurants.  Business center with printers helped.  Mini-fridge kept my beverages very cold. Easy access to major highways.  Can't ask for much more than that!MoreShow less</t>
+  </si>
+  <si>
+    <t>HasuP_12, Manager at Best Western Plus Northwest Inn &amp; Suites, responded to this reviewResponded October 6, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 6, 2013</t>
+  </si>
+  <si>
+    <t>What a beautiful hotel and great looking room! Mid-week happy hour was a great idea.  And a hot breakfast every morning was a bonus.  Close to great restaurants.  Business center with printers helped.  Mini-fridge kept my beverages very cold. Easy access to major highways.  Can't ask for much more than that!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239865-r170647212-Best_Western_Plus_Northwest_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>170647212</t>
+  </si>
+  <si>
+    <t>08/03/2013</t>
+  </si>
+  <si>
+    <t>Good Location, helpful staff</t>
+  </si>
+  <si>
+    <t>Stayed here while my daughter participated in a clinical trial at the Texas Medical Center.  The hotel was located between the airport and medical center.  It was easy access.  Other then when we checked in every one was friendly and helpful.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>HasuP_12, Manager at Best Western Plus Northwest Inn &amp; Suites, responded to this reviewResponded August 5, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 5, 2013</t>
+  </si>
+  <si>
+    <t>Stayed here while my daughter participated in a clinical trial at the Texas Medical Center.  The hotel was located between the airport and medical center.  It was easy access.  Other then when we checked in every one was friendly and helpful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239865-r170082292-Best_Western_Plus_Northwest_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>170082292</t>
+  </si>
+  <si>
+    <t>07/30/2013</t>
+  </si>
+  <si>
+    <t>Excellent Stay</t>
+  </si>
+  <si>
+    <t>Great comfortable room for business trip  High speed internet works  well and is dependable and fast even if your are not of the first floor.    Management has improved at this location over the past year substantially.  I have used this hotel often for business travel during the past four to five years.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>Great comfortable room for business trip  High speed internet works  well and is dependable and fast even if your are not of the first floor.    Management has improved at this location over the past year substantially.  I have used this hotel often for business travel during the past four to five years.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239865-r168366232-Best_Western_Plus_Northwest_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>168366232</t>
+  </si>
+  <si>
+    <t>07/20/2013</t>
+  </si>
+  <si>
+    <t>Execellant services</t>
+  </si>
+  <si>
+    <t>Excellent services and location. Very clean good breakfast and I will stay every time I travel to Houston. Staff very helpful, ceiling fans in the rooms, King smoking rooms good for some smoking travelers and not under standards because you are a smoker, our money is the same as non smokers.MoreShow less</t>
+  </si>
+  <si>
+    <t>HasuP_12, General Manager at Best Western Plus Northwest Inn &amp; Suites, responded to this reviewResponded July 22, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 22, 2013</t>
+  </si>
+  <si>
+    <t>Excellent services and location. Very clean good breakfast and I will stay every time I travel to Houston. Staff very helpful, ceiling fans in the rooms, King smoking rooms good for some smoking travelers and not under standards because you are a smoker, our money is the same as non smokers.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239865-r163086437-Best_Western_Plus_Northwest_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>163086437</t>
+  </si>
+  <si>
+    <t>06/05/2013</t>
+  </si>
+  <si>
+    <t>Very nice stay</t>
+  </si>
+  <si>
+    <t>We recently moved from Houston but returned to visit friends.  We wanted to stay on the northwest side and chose the Best Western Plus.  It has been years since we stayed at a Best Western and if this hotel is indicative of the chain, they have really improved.  We have stayed at many hotels that have higher ratings and prices but this one beat them out.  The rate included wi-fi and a nice breakfast and juice.  The room had a mini-refrigerator and, as a nice touch, a ceiling fan.  The room was larger than many we have stayed in and was very clean.  The staff was very professional upon check-in and explained the amenities offered.  We will stay here on future visits to Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>Luis N, Manager at Best Western Plus Northwest Inn &amp; Suites, responded to this reviewResponded June 6, 2013</t>
+  </si>
+  <si>
+    <t>Responded June 6, 2013</t>
+  </si>
+  <si>
+    <t>We recently moved from Houston but returned to visit friends.  We wanted to stay on the northwest side and chose the Best Western Plus.  It has been years since we stayed at a Best Western and if this hotel is indicative of the chain, they have really improved.  We have stayed at many hotels that have higher ratings and prices but this one beat them out.  The rate included wi-fi and a nice breakfast and juice.  The room had a mini-refrigerator and, as a nice touch, a ceiling fan.  The room was larger than many we have stayed in and was very clean.  The staff was very professional upon check-in and explained the amenities offered.  We will stay here on future visits to Houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239865-r161309464-Best_Western_Plus_Northwest_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>161309464</t>
+  </si>
+  <si>
+    <t>05/20/2013</t>
+  </si>
+  <si>
+    <t>Comfortable Stay</t>
+  </si>
+  <si>
+    <t>The suite was very comfortable.  Always wish they would have extra towel sets available in the room.  We have no complaints.  Checked in late and was happy to have all the room.  The room was clean and the king bed was comfortable.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>Luis N, Manager at Best Western Plus Northwest Inn &amp; Suites, responded to this reviewResponded May 21, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 21, 2013</t>
+  </si>
+  <si>
+    <t>The suite was very comfortable.  Always wish they would have extra towel sets available in the room.  We have no complaints.  Checked in late and was happy to have all the room.  The room was clean and the king bed was comfortable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239865-r158808472-Best_Western_Plus_Northwest_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>158808472</t>
+  </si>
+  <si>
+    <t>04/25/2013</t>
+  </si>
+  <si>
+    <t>Clean and comfortable</t>
+  </si>
+  <si>
+    <t>This hotel is in an awkward location (one way access) with a steep driveway (you better slow down!), but the service is good, the beds are comfortable, and the property is clean. The neighborhood isn't the greatest, but security cameras monitor the lots, and I didn't have any trouble. Restaurants require a drive - there is pizza delivery to the hotel, but I didn't use it.I will stay here again if I venture this way.MoreShow less</t>
+  </si>
+  <si>
+    <t>Luis N, General Manager at Best Western Plus Northwest Inn &amp; Suites, responded to this reviewResponded April 29, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 29, 2013</t>
+  </si>
+  <si>
+    <t>This hotel is in an awkward location (one way access) with a steep driveway (you better slow down!), but the service is good, the beds are comfortable, and the property is clean. The neighborhood isn't the greatest, but security cameras monitor the lots, and I didn't have any trouble. Restaurants require a drive - there is pizza delivery to the hotel, but I didn't use it.I will stay here again if I venture this way.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239865-r155585032-Best_Western_Plus_Northwest_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>155585032</t>
+  </si>
+  <si>
+    <t>03/25/2013</t>
+  </si>
+  <si>
+    <t>Nice hotel horrible room service</t>
+  </si>
+  <si>
+    <t>Stayed here for almost 2 weeks and we do not usually have our room cleaned every night.  So when we decided to have our room cleaned and when they did they didn't vacuum they didn't change the sheets and they replaced our towels but did not give us but one rag and one face towel for clearly two people staying in the room and we were out of toilet paper and they did not replace it or even left an extra roll on top of toilet.  Reported to front desk and they made a note in thier little book which went unresolved the very next day and the same thing happened so reported again to front desk and again same thing the next time. Also this is a best western plus but has the breakfast of a low grade best western.Will not return to this hotel due to service unless no other option available.MoreShow less</t>
+  </si>
+  <si>
+    <t>LuisN418, Manager at Best Western Plus Northwest Inn &amp; Suites, responded to this reviewResponded April 2, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 2, 2013</t>
+  </si>
+  <si>
+    <t>Stayed here for almost 2 weeks and we do not usually have our room cleaned every night.  So when we decided to have our room cleaned and when they did they didn't vacuum they didn't change the sheets and they replaced our towels but did not give us but one rag and one face towel for clearly two people staying in the room and we were out of toilet paper and they did not replace it or even left an extra roll on top of toilet.  Reported to front desk and they made a note in thier little book which went unresolved the very next day and the same thing happened so reported again to front desk and again same thing the next time. Also this is a best western plus but has the breakfast of a low grade best western.Will not return to this hotel due to service unless no other option available.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239865-r152220066-Best_Western_Plus_Northwest_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>152220066</t>
+  </si>
+  <si>
+    <t>02/15/2013</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239865-r149209483-Best_Western_Plus_Northwest_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>149209483</t>
+  </si>
+  <si>
+    <t>01/08/2013</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239865-r146033225-Best_Western_Plus_Northwest_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>146033225</t>
+  </si>
+  <si>
+    <t>11/23/2012</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239865-r136074358-Best_Western_Plus_Northwest_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>136074358</t>
+  </si>
+  <si>
+    <t>08/02/2012</t>
+  </si>
+  <si>
+    <t>Great Stay!</t>
+  </si>
+  <si>
+    <t>Stay here just about every time I visit Houston - which is about 5-10 days a month. The price for that area is great. Have researched and called a many of hotels in the area and can't find one that is as reasonable. The front desk is always professional. i usually call a day or two in advance and they remember who I am and make it a point to reserve the rooms i like best. All the rooms are quite large. Up until a month ago, the one thing I didn't like was the size of the TV compared to room size, but they have since upgraded all the rooms to large flat screens. When I have had problems with anything in the room (A/C was noisy one night and on another occasion the toilet broke) they repaired very quickly or offered a room change. The gym is nice a roomy for a workout. If I have one negative thing to say about the hotel it is their breakfast - it is lacking a wide variety of choices and the area is quite small.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>Stay here just about every time I visit Houston - which is about 5-10 days a month. The price for that area is great. Have researched and called a many of hotels in the area and can't find one that is as reasonable. The front desk is always professional. i usually call a day or two in advance and they remember who I am and make it a point to reserve the rooms i like best. All the rooms are quite large. Up until a month ago, the one thing I didn't like was the size of the TV compared to room size, but they have since upgraded all the rooms to large flat screens. When I have had problems with anything in the room (A/C was noisy one night and on another occasion the toilet broke) they repaired very quickly or offered a room change. The gym is nice a roomy for a workout. If I have one negative thing to say about the hotel it is their breakfast - it is lacking a wide variety of choices and the area is quite small.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239865-r135935762-Best_Western_Plus_Northwest_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>135935762</t>
+  </si>
+  <si>
+    <t>07/31/2012</t>
+  </si>
+  <si>
+    <t>pleasantly surprised</t>
+  </si>
+  <si>
+    <t>This was a very nice and clean hotel with great location. It was suprisingly affordable also. The front office staff could not be more helpful and curtious. I definately recommend this hotel to anyone looking for a hotel in that area.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239865-r130273107-Best_Western_Plus_Northwest_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>130273107</t>
+  </si>
+  <si>
+    <t>05/20/2012</t>
+  </si>
+  <si>
+    <t>Good value for the money</t>
+  </si>
+  <si>
+    <t>While you don't expect a Best Western to have the same level of amenities as a Four Seasons, the hotel is maintained well, the rooms seem quiet and spacious, and the location is convenient right alongside 290.  There is a breakfast available though they don't do an especially good job of keeping the eggs warm, but for $90 per night via Hotels.com it was decidedly better than the $140 or more paid by my coworkers who had to spring for breakfast on top of that.  I've stayed here twice for a week each time and had no complaints.  It's a little older -- tube style TVs, combo heater/AC units -- but it's functional.  There is even a happy hour of sorts, though I had to laugh -- an ice chest full of beer and single-serve bags of chips.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>While you don't expect a Best Western to have the same level of amenities as a Four Seasons, the hotel is maintained well, the rooms seem quiet and spacious, and the location is convenient right alongside 290.  There is a breakfast available though they don't do an especially good job of keeping the eggs warm, but for $90 per night via Hotels.com it was decidedly better than the $140 or more paid by my coworkers who had to spring for breakfast on top of that.  I've stayed here twice for a week each time and had no complaints.  It's a little older -- tube style TVs, combo heater/AC units -- but it's functional.  There is even a happy hour of sorts, though I had to laugh -- an ice chest full of beer and single-serve bags of chips.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239865-r128840960-Best_Western_Plus_Northwest_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>128840960</t>
+  </si>
+  <si>
+    <t>04/27/2012</t>
+  </si>
+  <si>
+    <t>Excellent Staff, Very comfortable hotel</t>
+  </si>
+  <si>
+    <t>I was visiting Houston on business for two days last week and stayed at this hotel.  The staff was extremely helpful and friendly, and obviously genuinely care about the quality of their hotel.  My room was very clean, comfortable and quiet.  I was expecting to hear noise from adjacent rooms as you often do in hotels, but I really didn't hear anything.  The only things that might need improvement are the size of the workout room (very basic), and the complimentary breakfast was fairly limited.  There are plenty of places to eat around the hotel, and it was fun to go out and explore Houston.  I would definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>I was visiting Houston on business for two days last week and stayed at this hotel.  The staff was extremely helpful and friendly, and obviously genuinely care about the quality of their hotel.  My room was very clean, comfortable and quiet.  I was expecting to hear noise from adjacent rooms as you often do in hotels, but I really didn't hear anything.  The only things that might need improvement are the size of the workout room (very basic), and the complimentary breakfast was fairly limited.  There are plenty of places to eat around the hotel, and it was fun to go out and explore Houston.  I would definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239865-r108190029-Best_Western_Plus_Northwest_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>108190029</t>
+  </si>
+  <si>
+    <t>05/14/2011</t>
+  </si>
+  <si>
+    <t>Good Place to stay in that part of Houston</t>
+  </si>
+  <si>
+    <t>Easy check in to a nice room.  Well appointed rooms with comfortable bed, fridge and microwave.  Good work space for business traveler with electric outlets at desk top height  (something other hotels seem to forget.)  Quiet area back off the road, no road noise.  Wireless internet was easy to log onto, was dependable, and fairly fast.Minor drawbacks:  no food within walking distance, though a Dennys is 5 min drive.  The TV system has not been upgraded, apparently they still use cable and many of the channels have gone digital, meaning their older sets will not pick them up.   Very minor issues. Small fitness center with minimal equipment, enough for an after meeting workoutThe breakfast is the usual:  eggs from powder, with some small sausages.  Waffles, fruit, juices, muffins, etc.  Enough to get you out the door.  There is coffee in the rooms and also at the breakfast area.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2011</t>
+  </si>
+  <si>
+    <t>Easy check in to a nice room.  Well appointed rooms with comfortable bed, fridge and microwave.  Good work space for business traveler with electric outlets at desk top height  (something other hotels seem to forget.)  Quiet area back off the road, no road noise.  Wireless internet was easy to log onto, was dependable, and fairly fast.Minor drawbacks:  no food within walking distance, though a Dennys is 5 min drive.  The TV system has not been upgraded, apparently they still use cable and many of the channels have gone digital, meaning their older sets will not pick them up.   Very minor issues. Small fitness center with minimal equipment, enough for an after meeting workoutThe breakfast is the usual:  eggs from powder, with some small sausages.  Waffles, fruit, juices, muffins, etc.  Enough to get you out the door.  There is coffee in the rooms and also at the breakfast area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239865-r82639610-Best_Western_Plus_Northwest_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>82639610</t>
+  </si>
+  <si>
+    <t>10/08/2010</t>
+  </si>
+  <si>
+    <t>great palce to stay with friends</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel about a month ago. Me and a couple friends were visiting Houston. Its really cozy and feels at home. The staff was very nice and although, there were multiple desk clerks, they were very well mannered. And the pool was a great place to just go and relax. We weren't looking for anything fancy, the rooms there were just enough. Great beds, mini fridge, TV, sofa, and free internet. I would definitely come back to this hotel. just need to make a trip back to houston</t>
+  </si>
+  <si>
+    <t>September 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239865-r34364250-Best_Western_Plus_Northwest_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>34364250</t>
+  </si>
+  <si>
+    <t>07/09/2009</t>
+  </si>
+  <si>
+    <t>Reasonable</t>
+  </si>
+  <si>
+    <t>I've stayed at this Best Western a couple times now and will use it again.  The rooms are clean and roomy, bed is comfortable, and the rate includes free internet access.  The room has a refrigerator, microwave, and a small couch.  It cost about $70 per night.   It is definitely worth a try if your looking for a decent hotel at a cost conscience price…overall, I would rate it 3-1/2 stars.</t>
+  </si>
+  <si>
+    <t>July 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239865-r22352928-Best_Western_Plus_Northwest_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>22352928</t>
+  </si>
+  <si>
+    <t>12/01/2008</t>
+  </si>
+  <si>
+    <t>Nice Clean Hotel, Very Rude Staff</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for a week, I found it to be clean and well maintained, the only thing that spoiled it where the rude reception staff, who primarily spent there time sat  behind the reception desk watching TV.  My worse experience with reception staff was whilst checking out. I waited for the receptionist to finish her conversation with another member of staff, I then greeted her with "Hi" she  just looked at me blankly, I then said" I would like to check out" , she replies "room"? 226 I say , she taps on the computer says "ok" then goes back to her conversation.This may seem fairly trivial and I realize  that I wasnt staying at a 4 star hotel, but basic manners cost nothingMoreShow less</t>
+  </si>
+  <si>
+    <t>November 2008</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for a week, I found it to be clean and well maintained, the only thing that spoiled it where the rude reception staff, who primarily spent there time sat  behind the reception desk watching TV.  My worse experience with reception staff was whilst checking out. I waited for the receptionist to finish her conversation with another member of staff, I then greeted her with "Hi" she  just looked at me blankly, I then said" I would like to check out" , she replies "room"? 226 I say , she taps on the computer says "ok" then goes back to her conversation.This may seem fairly trivial and I realize  that I wasnt staying at a 4 star hotel, but basic manners cost nothingMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239865-r8283846-Best_Western_Plus_Northwest_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>8283846</t>
+  </si>
+  <si>
+    <t>08/02/2007</t>
+  </si>
+  <si>
+    <t>Great.</t>
+  </si>
+  <si>
+    <t>My other usual hotels were booked &amp; I stopped in to see if they had a vacancy -- they did and I was pleasantly surprised.  The room was very comfortable and nice for a great price.  I would definitely stay there again for both business &amp; personal travel.</t>
+  </si>
+  <si>
+    <t>August 2007</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239865-r7627772-Best_Western_Plus_Northwest_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>7627772</t>
+  </si>
+  <si>
+    <t>05/14/2007</t>
+  </si>
+  <si>
+    <t>great room, bad service</t>
+  </si>
+  <si>
+    <t>Stayed one night in May. Front desk clerk (Mary) was atrocious. Not pleasant whatsoever. She didn't want to be there.....I didn't want her there either. The rooms were clean and spacious. In room microwave and frig was very convenient. Great rate as well.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239865-r6835395-Best_Western_Plus_Northwest_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>6835395</t>
+  </si>
+  <si>
+    <t>02/23/2007</t>
+  </si>
+  <si>
+    <t>Cleanliness Plus Value</t>
+  </si>
+  <si>
+    <t>This Hotel has large rooms, divided into sleeping area and sitting area.   Refrigerator and Microwave as well as cable.   One would expect to pay higher rates for a hotel as clean and well run as this one....especially in Houston.Small exercise room - very clean.     Washer and Dryer available.  A little sitting nook just off the main lobby (under the curved staircase) is just right for some quiet reading.   (Note:  the staircase would make a nice entrance location for a bride).A nice clean Breakfast area where a good continental breakfast is available.What takes me back on a regular basis is the cleanliness of the whole facility and the fresh smelling rooms.MoreShow less</t>
+  </si>
+  <si>
+    <t>This Hotel has large rooms, divided into sleeping area and sitting area.   Refrigerator and Microwave as well as cable.   One would expect to pay higher rates for a hotel as clean and well run as this one....especially in Houston.Small exercise room - very clean.     Washer and Dryer available.  A little sitting nook just off the main lobby (under the curved staircase) is just right for some quiet reading.   (Note:  the staircase would make a nice entrance location for a bride).A nice clean Breakfast area where a good continental breakfast is available.What takes me back on a regular basis is the cleanliness of the whole facility and the fresh smelling rooms.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239865-r3460638-Best_Western_Plus_Northwest_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>3460638</t>
+  </si>
+  <si>
+    <t>05/10/2005</t>
+  </si>
+  <si>
+    <t>Most clean, comfortable, and affordable Best Western</t>
+  </si>
+  <si>
+    <t>Feb 1-7, 2005. We stayed at the Best Western just a few miles north of the Burzynski Cancer clinic and were extremely happy there. You could take different roads between the hotel and clinic and miss all the rush hour traffic and the construction zones. And it only took 15-20 min to get there.
+We stayed in one of the rooms with the extra foam on the mattresses. #212, Has two queen beds, at the top of the curved indoor staircase. The lobby is beautiful, and clean. There is an outdoor pool. An exercise room with filtered water. High speed internet and computer free to use in the "business room". Breakfast daily, mostly continental but they had a hot waffle iron with the mix ready for you to make your own waffles. A nice touch. We felt safe here, especially after being duped by beggers in a different hotel parking lot, at a nearby Super 8. That place was real clean also but the beds were like sleeping on concrete.
+We slept so good. $59.00 night at the time we were there. We talked to them about the clinic and asked if they would give good rates and like to be on a list. Tristan is the manager and Leslie was always at the front desk. She is very sweet. We promised when we return to stay there. We did "shop" for hotels once we were there and found this...Feb 1-7, 2005. We stayed at the Best Western just a few miles north of the Burzynski Cancer clinic and were extremely happy there. You could take different roads between the hotel and clinic and miss all the rush hour traffic and the construction zones. And it only took 15-20 min to get there.We stayed in one of the rooms with the extra foam on the mattresses. #212, Has two queen beds, at the top of the curved indoor staircase. The lobby is beautiful, and clean. There is an outdoor pool. An exercise room with filtered water. High speed internet and computer free to use in the "business room". Breakfast daily, mostly continental but they had a hot waffle iron with the mix ready for you to make your own waffles. A nice touch. We felt safe here, especially after being duped by beggers in a different hotel parking lot, at a nearby Super 8. That place was real clean also but the beds were like sleeping on concrete.We slept so good. $59.00 night at the time we were there. We talked to them about the clinic and asked if they would give good rates and like to be on a list. Tristan is the manager and Leslie was always at the front desk. She is very sweet. We promised when we return to stay there. We did "shop" for hotels once we were there and found this Best Western to be the cleanest and most comfortable and convenient. Best Western Northwest Inn &amp; Suites 11611 NW FreewayHouston, TX 77092-----------Let me also recommend eating at the "natural foods restaurant" just south of the clinic. I think it is called "A Natural Feast". Excellent food. And the chocolate covered pecans are to die for! And the cranberry bars! We ate there everyday once we found it.Hope this helps someone out.,KathyMoreShow less</t>
+  </si>
+  <si>
+    <t>Feb 1-7, 2005. We stayed at the Best Western just a few miles north of the Burzynski Cancer clinic and were extremely happy there. You could take different roads between the hotel and clinic and miss all the rush hour traffic and the construction zones. And it only took 15-20 min to get there.
+We stayed in one of the rooms with the extra foam on the mattresses. #212, Has two queen beds, at the top of the curved indoor staircase. The lobby is beautiful, and clean. There is an outdoor pool. An exercise room with filtered water. High speed internet and computer free to use in the "business room". Breakfast daily, mostly continental but they had a hot waffle iron with the mix ready for you to make your own waffles. A nice touch. We felt safe here, especially after being duped by beggers in a different hotel parking lot, at a nearby Super 8. That place was real clean also but the beds were like sleeping on concrete.
+We slept so good. $59.00 night at the time we were there. We talked to them about the clinic and asked if they would give good rates and like to be on a list. Tristan is the manager and Leslie was always at the front desk. She is very sweet. We promised when we return to stay there. We did "shop" for hotels once we were there and found this...Feb 1-7, 2005. We stayed at the Best Western just a few miles north of the Burzynski Cancer clinic and were extremely happy there. You could take different roads between the hotel and clinic and miss all the rush hour traffic and the construction zones. And it only took 15-20 min to get there.We stayed in one of the rooms with the extra foam on the mattresses. #212, Has two queen beds, at the top of the curved indoor staircase. The lobby is beautiful, and clean. There is an outdoor pool. An exercise room with filtered water. High speed internet and computer free to use in the "business room". Breakfast daily, mostly continental but they had a hot waffle iron with the mix ready for you to make your own waffles. A nice touch. We felt safe here, especially after being duped by beggers in a different hotel parking lot, at a nearby Super 8. That place was real clean also but the beds were like sleeping on concrete.We slept so good. $59.00 night at the time we were there. We talked to them about the clinic and asked if they would give good rates and like to be on a list. Tristan is the manager and Leslie was always at the front desk. She is very sweet. We promised when we return to stay there. We did "shop" for hotels once we were there and found this Best Western to be the cleanest and most comfortable and convenient. Best Western Northwest Inn &amp; Suites 11611 NW FreewayHouston, TX 77092-----------Let me also recommend eating at the "natural foods restaurant" just south of the clinic. I think it is called "A Natural Feast". Excellent food. And the chocolate covered pecans are to die for! And the cranberry bars! We ate there everyday once we found it.Hope this helps someone out.,KathyMore</t>
   </si>
 </sst>
 </file>
@@ -532,11 +2411,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +2443,6180 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>38557</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" t="n">
+        <v>4</v>
+      </c>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>38557</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>64</v>
+      </c>
+      <c r="X3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>38557</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" t="n">
+        <v>3</v>
+      </c>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>64</v>
+      </c>
+      <c r="X4" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>38557</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>78</v>
+      </c>
+      <c r="O5" t="s">
+        <v>79</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>64</v>
+      </c>
+      <c r="X5" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>38557</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K6" t="s">
+        <v>84</v>
+      </c>
+      <c r="L6" t="s">
+        <v>85</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>78</v>
+      </c>
+      <c r="O6" t="s">
+        <v>79</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>86</v>
+      </c>
+      <c r="X6" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>38557</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>90</v>
+      </c>
+      <c r="J7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>78</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>94</v>
+      </c>
+      <c r="X7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>38557</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>97</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>98</v>
+      </c>
+      <c r="J8" t="s">
+        <v>99</v>
+      </c>
+      <c r="K8" t="s">
+        <v>100</v>
+      </c>
+      <c r="L8" t="s">
+        <v>101</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>102</v>
+      </c>
+      <c r="O8" t="s">
+        <v>103</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>38557</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>105</v>
+      </c>
+      <c r="J9" t="s">
+        <v>106</v>
+      </c>
+      <c r="K9" t="s">
+        <v>107</v>
+      </c>
+      <c r="L9" t="s">
+        <v>108</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>102</v>
+      </c>
+      <c r="O9" t="s">
+        <v>79</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>38557</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>109</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>110</v>
+      </c>
+      <c r="J10" t="s">
+        <v>111</v>
+      </c>
+      <c r="K10" t="s">
+        <v>112</v>
+      </c>
+      <c r="L10" t="s">
+        <v>113</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>114</v>
+      </c>
+      <c r="O10" t="s">
+        <v>79</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>4</v>
+      </c>
+      <c r="R10" t="n">
+        <v>4</v>
+      </c>
+      <c r="S10" t="n">
+        <v>4</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>4</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>38557</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>115</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>116</v>
+      </c>
+      <c r="J11" t="s">
+        <v>117</v>
+      </c>
+      <c r="K11" t="s">
+        <v>118</v>
+      </c>
+      <c r="L11" t="s">
+        <v>119</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>114</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>4</v>
+      </c>
+      <c r="R11" t="n">
+        <v>4</v>
+      </c>
+      <c r="S11" t="n">
+        <v>4</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>4</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>38557</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>121</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>122</v>
+      </c>
+      <c r="J12" t="s">
+        <v>123</v>
+      </c>
+      <c r="K12" t="s">
+        <v>124</v>
+      </c>
+      <c r="L12" t="s">
+        <v>125</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>114</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>4</v>
+      </c>
+      <c r="R12" t="n">
+        <v>4</v>
+      </c>
+      <c r="S12" t="n">
+        <v>4</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>38557</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>126</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>127</v>
+      </c>
+      <c r="J13" t="s">
+        <v>128</v>
+      </c>
+      <c r="K13" t="s">
+        <v>129</v>
+      </c>
+      <c r="L13" t="s">
+        <v>130</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>131</v>
+      </c>
+      <c r="O13" t="s">
+        <v>63</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="n">
+        <v>3</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>38557</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>132</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>133</v>
+      </c>
+      <c r="J14" t="s">
+        <v>134</v>
+      </c>
+      <c r="K14" t="s">
+        <v>135</v>
+      </c>
+      <c r="L14" t="s">
+        <v>136</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>137</v>
+      </c>
+      <c r="O14" t="s">
+        <v>103</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="n">
+        <v>4</v>
+      </c>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>138</v>
+      </c>
+      <c r="X14" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>38557</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>141</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>142</v>
+      </c>
+      <c r="J15" t="s">
+        <v>143</v>
+      </c>
+      <c r="K15" t="s">
+        <v>144</v>
+      </c>
+      <c r="L15" t="s">
+        <v>145</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>146</v>
+      </c>
+      <c r="O15" t="s">
+        <v>79</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>147</v>
+      </c>
+      <c r="X15" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>38557</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>150</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>151</v>
+      </c>
+      <c r="J16" t="s">
+        <v>152</v>
+      </c>
+      <c r="K16" t="s">
+        <v>107</v>
+      </c>
+      <c r="L16" t="s">
+        <v>153</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>154</v>
+      </c>
+      <c r="O16" t="s">
+        <v>79</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>155</v>
+      </c>
+      <c r="X16" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>38557</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>158</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>159</v>
+      </c>
+      <c r="J17" t="s">
+        <v>160</v>
+      </c>
+      <c r="K17" t="s">
+        <v>161</v>
+      </c>
+      <c r="L17" t="s">
+        <v>162</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="s">
+        <v>154</v>
+      </c>
+      <c r="O17" t="s">
+        <v>163</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>2</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>1</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>38557</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>164</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>165</v>
+      </c>
+      <c r="J18" t="s">
+        <v>166</v>
+      </c>
+      <c r="K18" t="s">
+        <v>167</v>
+      </c>
+      <c r="L18" t="s">
+        <v>168</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>169</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>3</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1</v>
+      </c>
+      <c r="S18" t="n">
+        <v>3</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>170</v>
+      </c>
+      <c r="X18" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>38557</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>173</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>174</v>
+      </c>
+      <c r="J19" t="s">
+        <v>175</v>
+      </c>
+      <c r="K19" t="s">
+        <v>176</v>
+      </c>
+      <c r="L19" t="s">
+        <v>177</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
+        <v>178</v>
+      </c>
+      <c r="O19" t="s">
+        <v>79</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>179</v>
+      </c>
+      <c r="X19" t="s">
+        <v>180</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>38557</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>182</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>183</v>
+      </c>
+      <c r="J20" t="s">
+        <v>184</v>
+      </c>
+      <c r="K20" t="s">
+        <v>185</v>
+      </c>
+      <c r="L20" t="s">
+        <v>186</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>187</v>
+      </c>
+      <c r="O20" t="s">
+        <v>79</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="n">
+        <v>3</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>3</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>188</v>
+      </c>
+      <c r="X20" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>38557</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>191</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>192</v>
+      </c>
+      <c r="J21" t="s">
+        <v>193</v>
+      </c>
+      <c r="K21" t="s">
+        <v>194</v>
+      </c>
+      <c r="L21" t="s">
+        <v>195</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>187</v>
+      </c>
+      <c r="O21" t="s">
+        <v>79</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>188</v>
+      </c>
+      <c r="X21" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>38557</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>197</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>198</v>
+      </c>
+      <c r="J22" t="s">
+        <v>199</v>
+      </c>
+      <c r="K22" t="s">
+        <v>200</v>
+      </c>
+      <c r="L22" t="s">
+        <v>201</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>202</v>
+      </c>
+      <c r="O22" t="s">
+        <v>79</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>188</v>
+      </c>
+      <c r="X22" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>38557</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>204</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>205</v>
+      </c>
+      <c r="J23" t="s">
+        <v>206</v>
+      </c>
+      <c r="K23" t="s">
+        <v>207</v>
+      </c>
+      <c r="L23" t="s">
+        <v>208</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>209</v>
+      </c>
+      <c r="O23" t="s">
+        <v>63</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>188</v>
+      </c>
+      <c r="X23" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>38557</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>211</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>212</v>
+      </c>
+      <c r="J24" t="s">
+        <v>213</v>
+      </c>
+      <c r="K24" t="s">
+        <v>214</v>
+      </c>
+      <c r="L24" t="s">
+        <v>215</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>209</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="n">
+        <v>4</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>188</v>
+      </c>
+      <c r="X24" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>38557</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>217</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>218</v>
+      </c>
+      <c r="J25" t="s">
+        <v>219</v>
+      </c>
+      <c r="K25" t="s">
+        <v>220</v>
+      </c>
+      <c r="L25" t="s">
+        <v>221</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>209</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>4</v>
+      </c>
+      <c r="R25" t="n">
+        <v>4</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>4</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>188</v>
+      </c>
+      <c r="X25" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>38557</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>223</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>224</v>
+      </c>
+      <c r="J26" t="s">
+        <v>225</v>
+      </c>
+      <c r="K26" t="s">
+        <v>226</v>
+      </c>
+      <c r="L26" t="s">
+        <v>227</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>228</v>
+      </c>
+      <c r="O26" t="s">
+        <v>63</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>229</v>
+      </c>
+      <c r="X26" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>38557</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>232</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>233</v>
+      </c>
+      <c r="J27" t="s">
+        <v>234</v>
+      </c>
+      <c r="K27" t="s">
+        <v>235</v>
+      </c>
+      <c r="L27" t="s">
+        <v>236</v>
+      </c>
+      <c r="M27" t="n">
+        <v>2</v>
+      </c>
+      <c r="N27" t="s">
+        <v>237</v>
+      </c>
+      <c r="O27" t="s">
+        <v>79</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>2</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>238</v>
+      </c>
+      <c r="X27" t="s">
+        <v>239</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>38557</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>241</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>242</v>
+      </c>
+      <c r="J28" t="s">
+        <v>243</v>
+      </c>
+      <c r="K28" t="s">
+        <v>244</v>
+      </c>
+      <c r="L28" t="s">
+        <v>245</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>237</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="s"/>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>238</v>
+      </c>
+      <c r="X28" t="s">
+        <v>239</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>38557</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>247</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>248</v>
+      </c>
+      <c r="J29" t="s">
+        <v>249</v>
+      </c>
+      <c r="K29" t="s">
+        <v>250</v>
+      </c>
+      <c r="L29" t="s">
+        <v>251</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>237</v>
+      </c>
+      <c r="O29" t="s">
+        <v>63</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="n">
+        <v>4</v>
+      </c>
+      <c r="R29" t="s"/>
+      <c r="S29" t="n">
+        <v>4</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>4</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>238</v>
+      </c>
+      <c r="X29" t="s">
+        <v>239</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>38557</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>253</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>254</v>
+      </c>
+      <c r="J30" t="s">
+        <v>255</v>
+      </c>
+      <c r="K30" t="s">
+        <v>256</v>
+      </c>
+      <c r="L30" t="s">
+        <v>257</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>237</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>238</v>
+      </c>
+      <c r="X30" t="s">
+        <v>239</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>38557</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>259</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>260</v>
+      </c>
+      <c r="J31" t="s">
+        <v>261</v>
+      </c>
+      <c r="K31" t="s">
+        <v>262</v>
+      </c>
+      <c r="L31" t="s">
+        <v>263</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>264</v>
+      </c>
+      <c r="O31" t="s">
+        <v>103</v>
+      </c>
+      <c r="P31" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>4</v>
+      </c>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
+      <c r="S31" t="n">
+        <v>4</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>4</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>238</v>
+      </c>
+      <c r="X31" t="s">
+        <v>239</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>38557</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>266</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>267</v>
+      </c>
+      <c r="J32" t="s">
+        <v>268</v>
+      </c>
+      <c r="K32" t="s">
+        <v>269</v>
+      </c>
+      <c r="L32" t="s">
+        <v>270</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>271</v>
+      </c>
+      <c r="O32" t="s">
+        <v>103</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>38557</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>272</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>273</v>
+      </c>
+      <c r="J33" t="s">
+        <v>274</v>
+      </c>
+      <c r="K33" t="s">
+        <v>275</v>
+      </c>
+      <c r="L33" t="s">
+        <v>276</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>271</v>
+      </c>
+      <c r="O33" t="s">
+        <v>163</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>38557</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>277</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>278</v>
+      </c>
+      <c r="J34" t="s">
+        <v>279</v>
+      </c>
+      <c r="K34" t="s">
+        <v>280</v>
+      </c>
+      <c r="L34" t="s">
+        <v>281</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>271</v>
+      </c>
+      <c r="O34" t="s">
+        <v>79</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>4</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>38557</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>282</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>283</v>
+      </c>
+      <c r="J35" t="s">
+        <v>284</v>
+      </c>
+      <c r="K35" t="s">
+        <v>285</v>
+      </c>
+      <c r="L35" t="s">
+        <v>286</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>287</v>
+      </c>
+      <c r="O35" t="s">
+        <v>63</v>
+      </c>
+      <c r="P35" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>3</v>
+      </c>
+      <c r="R35" t="n">
+        <v>3</v>
+      </c>
+      <c r="S35" t="n">
+        <v>4</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>3</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>38557</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>289</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>290</v>
+      </c>
+      <c r="J36" t="s">
+        <v>291</v>
+      </c>
+      <c r="K36" t="s">
+        <v>292</v>
+      </c>
+      <c r="L36" t="s">
+        <v>293</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>294</v>
+      </c>
+      <c r="O36" t="s">
+        <v>63</v>
+      </c>
+      <c r="P36" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>4</v>
+      </c>
+      <c r="R36" t="n">
+        <v>3</v>
+      </c>
+      <c r="S36" t="n">
+        <v>4</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>4</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>38557</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>295</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>296</v>
+      </c>
+      <c r="J37" t="s">
+        <v>297</v>
+      </c>
+      <c r="K37" t="s">
+        <v>298</v>
+      </c>
+      <c r="L37" t="s">
+        <v>299</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>294</v>
+      </c>
+      <c r="O37" t="s">
+        <v>79</v>
+      </c>
+      <c r="P37" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>38557</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>300</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>301</v>
+      </c>
+      <c r="J38" t="s">
+        <v>302</v>
+      </c>
+      <c r="K38" t="s">
+        <v>303</v>
+      </c>
+      <c r="L38" t="s">
+        <v>304</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>305</v>
+      </c>
+      <c r="O38" t="s">
+        <v>53</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>4</v>
+      </c>
+      <c r="R38" t="n">
+        <v>3</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>4</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38557</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>306</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>307</v>
+      </c>
+      <c r="J39" t="s">
+        <v>308</v>
+      </c>
+      <c r="K39" t="s">
+        <v>309</v>
+      </c>
+      <c r="L39" t="s">
+        <v>310</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>305</v>
+      </c>
+      <c r="O39" t="s">
+        <v>79</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>38557</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>311</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>312</v>
+      </c>
+      <c r="J40" t="s">
+        <v>313</v>
+      </c>
+      <c r="K40" t="s">
+        <v>314</v>
+      </c>
+      <c r="L40" t="s">
+        <v>315</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>305</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>38557</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>317</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>318</v>
+      </c>
+      <c r="J41" t="s">
+        <v>319</v>
+      </c>
+      <c r="K41" t="s">
+        <v>320</v>
+      </c>
+      <c r="L41" t="s">
+        <v>321</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>322</v>
+      </c>
+      <c r="O41" t="s">
+        <v>79</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>38557</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>323</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>324</v>
+      </c>
+      <c r="J42" t="s">
+        <v>325</v>
+      </c>
+      <c r="K42" t="s">
+        <v>326</v>
+      </c>
+      <c r="L42" t="s">
+        <v>327</v>
+      </c>
+      <c r="M42" t="n">
+        <v>2</v>
+      </c>
+      <c r="N42" t="s">
+        <v>322</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>3</v>
+      </c>
+      <c r="R42" t="n">
+        <v>2</v>
+      </c>
+      <c r="S42" t="n">
+        <v>3</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>2</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>38557</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>328</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>329</v>
+      </c>
+      <c r="J43" t="s">
+        <v>330</v>
+      </c>
+      <c r="K43" t="s">
+        <v>331</v>
+      </c>
+      <c r="L43" t="s">
+        <v>332</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>333</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>38557</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>334</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>335</v>
+      </c>
+      <c r="J44" t="s">
+        <v>336</v>
+      </c>
+      <c r="K44" t="s">
+        <v>337</v>
+      </c>
+      <c r="L44" t="s">
+        <v>338</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>339</v>
+      </c>
+      <c r="O44" t="s">
+        <v>103</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="n">
+        <v>4</v>
+      </c>
+      <c r="S44" t="n">
+        <v>4</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>4</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>38557</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>340</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>341</v>
+      </c>
+      <c r="J45" t="s">
+        <v>342</v>
+      </c>
+      <c r="K45" t="s">
+        <v>343</v>
+      </c>
+      <c r="L45" t="s">
+        <v>344</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>345</v>
+      </c>
+      <c r="O45" t="s">
+        <v>79</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>38557</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>347</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>348</v>
+      </c>
+      <c r="J46" t="s">
+        <v>349</v>
+      </c>
+      <c r="K46" t="s">
+        <v>350</v>
+      </c>
+      <c r="L46" t="s">
+        <v>351</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>352</v>
+      </c>
+      <c r="O46" t="s">
+        <v>79</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>4</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>4</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>38557</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>353</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>354</v>
+      </c>
+      <c r="J47" t="s">
+        <v>355</v>
+      </c>
+      <c r="K47" t="s">
+        <v>356</v>
+      </c>
+      <c r="L47" t="s">
+        <v>357</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>358</v>
+      </c>
+      <c r="O47" t="s">
+        <v>79</v>
+      </c>
+      <c r="P47" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>4</v>
+      </c>
+      <c r="R47" t="n">
+        <v>4</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>4</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>38557</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>359</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>360</v>
+      </c>
+      <c r="J48" t="s">
+        <v>361</v>
+      </c>
+      <c r="K48" t="s">
+        <v>362</v>
+      </c>
+      <c r="L48" t="s">
+        <v>363</v>
+      </c>
+      <c r="M48" t="n">
+        <v>2</v>
+      </c>
+      <c r="N48" t="s">
+        <v>358</v>
+      </c>
+      <c r="O48" t="s">
+        <v>53</v>
+      </c>
+      <c r="P48" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>2</v>
+      </c>
+      <c r="R48" t="n">
+        <v>2</v>
+      </c>
+      <c r="S48" t="n">
+        <v>2</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>3</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>38557</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>364</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>365</v>
+      </c>
+      <c r="J49" t="s">
+        <v>366</v>
+      </c>
+      <c r="K49" t="s">
+        <v>367</v>
+      </c>
+      <c r="L49" t="s">
+        <v>368</v>
+      </c>
+      <c r="M49" t="n">
+        <v>2</v>
+      </c>
+      <c r="N49" t="s">
+        <v>369</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>2</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>38557</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>371</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>372</v>
+      </c>
+      <c r="J50" t="s">
+        <v>373</v>
+      </c>
+      <c r="K50" t="s">
+        <v>374</v>
+      </c>
+      <c r="L50" t="s">
+        <v>375</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>369</v>
+      </c>
+      <c r="O50" t="s">
+        <v>79</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>38557</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>376</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>377</v>
+      </c>
+      <c r="J51" t="s">
+        <v>378</v>
+      </c>
+      <c r="K51" t="s">
+        <v>379</v>
+      </c>
+      <c r="L51" t="s">
+        <v>380</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>381</v>
+      </c>
+      <c r="O51" t="s">
+        <v>163</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>38557</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>382</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>383</v>
+      </c>
+      <c r="J52" t="s">
+        <v>384</v>
+      </c>
+      <c r="K52" t="s">
+        <v>385</v>
+      </c>
+      <c r="L52" t="s">
+        <v>386</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>381</v>
+      </c>
+      <c r="O52" t="s">
+        <v>53</v>
+      </c>
+      <c r="P52" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>4</v>
+      </c>
+      <c r="R52" t="n">
+        <v>4</v>
+      </c>
+      <c r="S52" t="n">
+        <v>4</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>4</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>38557</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>387</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>388</v>
+      </c>
+      <c r="J53" t="s">
+        <v>389</v>
+      </c>
+      <c r="K53" t="s">
+        <v>390</v>
+      </c>
+      <c r="L53" t="s">
+        <v>391</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>392</v>
+      </c>
+      <c r="O53" t="s">
+        <v>79</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>38557</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>393</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>394</v>
+      </c>
+      <c r="J54" t="s">
+        <v>395</v>
+      </c>
+      <c r="K54" t="s">
+        <v>396</v>
+      </c>
+      <c r="L54" t="s">
+        <v>397</v>
+      </c>
+      <c r="M54" t="n">
+        <v>3</v>
+      </c>
+      <c r="N54" t="s">
+        <v>392</v>
+      </c>
+      <c r="O54" t="s">
+        <v>79</v>
+      </c>
+      <c r="P54" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>3</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
+      <c r="S54" t="n">
+        <v>3</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>3</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>38557</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>398</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>399</v>
+      </c>
+      <c r="J55" t="s">
+        <v>400</v>
+      </c>
+      <c r="K55" t="s">
+        <v>401</v>
+      </c>
+      <c r="L55" t="s">
+        <v>402</v>
+      </c>
+      <c r="M55" t="n">
+        <v>2</v>
+      </c>
+      <c r="N55" t="s">
+        <v>392</v>
+      </c>
+      <c r="O55" t="s">
+        <v>79</v>
+      </c>
+      <c r="P55" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>3</v>
+      </c>
+      <c r="R55" t="n">
+        <v>3</v>
+      </c>
+      <c r="S55" t="n">
+        <v>3</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>2</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>38557</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>404</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>405</v>
+      </c>
+      <c r="J56" t="s">
+        <v>406</v>
+      </c>
+      <c r="K56" t="s">
+        <v>407</v>
+      </c>
+      <c r="L56" t="s">
+        <v>408</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>409</v>
+      </c>
+      <c r="O56" t="s">
+        <v>79</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>38557</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>410</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>411</v>
+      </c>
+      <c r="J57" t="s">
+        <v>412</v>
+      </c>
+      <c r="K57" t="s">
+        <v>413</v>
+      </c>
+      <c r="L57" t="s">
+        <v>414</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>409</v>
+      </c>
+      <c r="O57" t="s">
+        <v>53</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>38557</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>415</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>416</v>
+      </c>
+      <c r="J58" t="s">
+        <v>417</v>
+      </c>
+      <c r="K58" t="s">
+        <v>418</v>
+      </c>
+      <c r="L58" t="s">
+        <v>419</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>420</v>
+      </c>
+      <c r="O58" t="s">
+        <v>79</v>
+      </c>
+      <c r="P58" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>4</v>
+      </c>
+      <c r="R58" t="n">
+        <v>4</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>38557</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>421</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>422</v>
+      </c>
+      <c r="J59" t="s">
+        <v>423</v>
+      </c>
+      <c r="K59" t="s">
+        <v>424</v>
+      </c>
+      <c r="L59" t="s">
+        <v>425</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>420</v>
+      </c>
+      <c r="O59" t="s">
+        <v>79</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>3</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>426</v>
+      </c>
+      <c r="X59" t="s">
+        <v>427</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>38557</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>429</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>430</v>
+      </c>
+      <c r="J60" t="s">
+        <v>431</v>
+      </c>
+      <c r="K60" t="s">
+        <v>432</v>
+      </c>
+      <c r="L60" t="s">
+        <v>433</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>420</v>
+      </c>
+      <c r="O60" t="s">
+        <v>79</v>
+      </c>
+      <c r="P60" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>4</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>426</v>
+      </c>
+      <c r="X60" t="s">
+        <v>427</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>38557</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>435</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>436</v>
+      </c>
+      <c r="J61" t="s">
+        <v>437</v>
+      </c>
+      <c r="K61" t="s">
+        <v>438</v>
+      </c>
+      <c r="L61" t="s">
+        <v>439</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>420</v>
+      </c>
+      <c r="O61" t="s">
+        <v>53</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>440</v>
+      </c>
+      <c r="X61" t="s">
+        <v>441</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>38557</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>443</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>444</v>
+      </c>
+      <c r="J62" t="s">
+        <v>445</v>
+      </c>
+      <c r="K62" t="s">
+        <v>446</v>
+      </c>
+      <c r="L62" t="s">
+        <v>447</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>420</v>
+      </c>
+      <c r="O62" t="s">
+        <v>79</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>448</v>
+      </c>
+      <c r="X62" t="s">
+        <v>449</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>38557</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>451</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>452</v>
+      </c>
+      <c r="J63" t="s">
+        <v>453</v>
+      </c>
+      <c r="K63" t="s">
+        <v>454</v>
+      </c>
+      <c r="L63" t="s">
+        <v>455</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>456</v>
+      </c>
+      <c r="O63" t="s">
+        <v>79</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>4</v>
+      </c>
+      <c r="R63" t="n">
+        <v>4</v>
+      </c>
+      <c r="S63" t="n">
+        <v>4</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>457</v>
+      </c>
+      <c r="X63" t="s">
+        <v>458</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>38557</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>460</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>461</v>
+      </c>
+      <c r="J64" t="s">
+        <v>462</v>
+      </c>
+      <c r="K64" t="s">
+        <v>463</v>
+      </c>
+      <c r="L64" t="s">
+        <v>464</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s">
+        <v>456</v>
+      </c>
+      <c r="O64" t="s">
+        <v>63</v>
+      </c>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="s"/>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="s"/>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>465</v>
+      </c>
+      <c r="X64" t="s">
+        <v>466</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>38557</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>468</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>469</v>
+      </c>
+      <c r="J65" t="s">
+        <v>470</v>
+      </c>
+      <c r="K65" t="s">
+        <v>112</v>
+      </c>
+      <c r="L65" t="s">
+        <v>471</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>472</v>
+      </c>
+      <c r="O65" t="s">
+        <v>79</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>473</v>
+      </c>
+      <c r="X65" t="s">
+        <v>474</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>38557</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>476</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>477</v>
+      </c>
+      <c r="J66" t="s">
+        <v>478</v>
+      </c>
+      <c r="K66" t="s">
+        <v>479</v>
+      </c>
+      <c r="L66" t="s">
+        <v>480</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>481</v>
+      </c>
+      <c r="O66" t="s">
+        <v>79</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>482</v>
+      </c>
+      <c r="X66" t="s">
+        <v>483</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>38557</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>485</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>486</v>
+      </c>
+      <c r="J67" t="s">
+        <v>487</v>
+      </c>
+      <c r="K67" t="s">
+        <v>488</v>
+      </c>
+      <c r="L67" t="s">
+        <v>489</v>
+      </c>
+      <c r="M67" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" t="s">
+        <v>481</v>
+      </c>
+      <c r="O67" t="s">
+        <v>53</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>4</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>4</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>490</v>
+      </c>
+      <c r="X67" t="s">
+        <v>491</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>38557</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>493</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>494</v>
+      </c>
+      <c r="J68" t="s">
+        <v>495</v>
+      </c>
+      <c r="K68" t="s">
+        <v>496</v>
+      </c>
+      <c r="L68" t="s">
+        <v>497</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>498</v>
+      </c>
+      <c r="O68" t="s">
+        <v>63</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>499</v>
+      </c>
+      <c r="X68" t="s">
+        <v>500</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>38557</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>502</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>503</v>
+      </c>
+      <c r="J69" t="s">
+        <v>504</v>
+      </c>
+      <c r="K69" t="s">
+        <v>505</v>
+      </c>
+      <c r="L69" t="s">
+        <v>506</v>
+      </c>
+      <c r="M69" t="n">
+        <v>4</v>
+      </c>
+      <c r="N69" t="s">
+        <v>507</v>
+      </c>
+      <c r="O69" t="s">
+        <v>79</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>4</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>4</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>4</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>508</v>
+      </c>
+      <c r="X69" t="s">
+        <v>509</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>38557</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>511</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>512</v>
+      </c>
+      <c r="J70" t="s">
+        <v>513</v>
+      </c>
+      <c r="K70" t="s">
+        <v>514</v>
+      </c>
+      <c r="L70" t="s">
+        <v>515</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>507</v>
+      </c>
+      <c r="O70" t="s">
+        <v>79</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>4</v>
+      </c>
+      <c r="S70" t="n">
+        <v>4</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>4</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>516</v>
+      </c>
+      <c r="X70" t="s">
+        <v>517</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>38557</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>519</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>520</v>
+      </c>
+      <c r="J71" t="s">
+        <v>521</v>
+      </c>
+      <c r="K71" t="s">
+        <v>522</v>
+      </c>
+      <c r="L71" t="s">
+        <v>523</v>
+      </c>
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s">
+        <v>524</v>
+      </c>
+      <c r="O71" t="s">
+        <v>53</v>
+      </c>
+      <c r="P71" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>4</v>
+      </c>
+      <c r="R71" t="n">
+        <v>4</v>
+      </c>
+      <c r="S71" t="n">
+        <v>4</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>4</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>525</v>
+      </c>
+      <c r="X71" t="s">
+        <v>526</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>38557</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>528</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>529</v>
+      </c>
+      <c r="J72" t="s">
+        <v>530</v>
+      </c>
+      <c r="K72" t="s">
+        <v>531</v>
+      </c>
+      <c r="L72" t="s">
+        <v>532</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>533</v>
+      </c>
+      <c r="O72" t="s">
+        <v>79</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>525</v>
+      </c>
+      <c r="X72" t="s">
+        <v>526</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>38557</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>535</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>536</v>
+      </c>
+      <c r="J73" t="s">
+        <v>537</v>
+      </c>
+      <c r="K73" t="s">
+        <v>538</v>
+      </c>
+      <c r="L73" t="s">
+        <v>539</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>533</v>
+      </c>
+      <c r="O73" t="s">
+        <v>79</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>540</v>
+      </c>
+      <c r="X73" t="s">
+        <v>541</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>38557</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>543</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>544</v>
+      </c>
+      <c r="J74" t="s">
+        <v>545</v>
+      </c>
+      <c r="K74" t="s">
+        <v>546</v>
+      </c>
+      <c r="L74" t="s">
+        <v>547</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>548</v>
+      </c>
+      <c r="O74" t="s">
+        <v>53</v>
+      </c>
+      <c r="P74" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>549</v>
+      </c>
+      <c r="X74" t="s">
+        <v>550</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>38557</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>552</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>553</v>
+      </c>
+      <c r="J75" t="s">
+        <v>554</v>
+      </c>
+      <c r="K75" t="s">
+        <v>555</v>
+      </c>
+      <c r="L75" t="s">
+        <v>556</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>557</v>
+      </c>
+      <c r="O75" t="s">
+        <v>63</v>
+      </c>
+      <c r="P75" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>4</v>
+      </c>
+      <c r="S75" t="n">
+        <v>4</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>4</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>558</v>
+      </c>
+      <c r="X75" t="s">
+        <v>559</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>38557</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>561</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>562</v>
+      </c>
+      <c r="J76" t="s">
+        <v>563</v>
+      </c>
+      <c r="K76" t="s">
+        <v>564</v>
+      </c>
+      <c r="L76" t="s">
+        <v>565</v>
+      </c>
+      <c r="M76" t="n">
+        <v>4</v>
+      </c>
+      <c r="N76" t="s">
+        <v>548</v>
+      </c>
+      <c r="O76" t="s">
+        <v>79</v>
+      </c>
+      <c r="P76" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>4</v>
+      </c>
+      <c r="R76" t="n">
+        <v>3</v>
+      </c>
+      <c r="S76" t="n">
+        <v>4</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>4</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>566</v>
+      </c>
+      <c r="X76" t="s">
+        <v>567</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>38557</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>569</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>570</v>
+      </c>
+      <c r="J77" t="s">
+        <v>571</v>
+      </c>
+      <c r="K77" t="s">
+        <v>572</v>
+      </c>
+      <c r="L77" t="s">
+        <v>573</v>
+      </c>
+      <c r="M77" t="n">
+        <v>3</v>
+      </c>
+      <c r="N77" t="s"/>
+      <c r="O77" t="s"/>
+      <c r="P77" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>4</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>4</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>1</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>574</v>
+      </c>
+      <c r="X77" t="s">
+        <v>575</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>38557</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>577</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>578</v>
+      </c>
+      <c r="J78" t="s">
+        <v>579</v>
+      </c>
+      <c r="K78" t="s"/>
+      <c r="L78" t="s">
+        <v>580</v>
+      </c>
+      <c r="M78" t="n">
+        <v>4</v>
+      </c>
+      <c r="N78" t="s">
+        <v>581</v>
+      </c>
+      <c r="O78" t="s">
+        <v>103</v>
+      </c>
+      <c r="P78" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>3</v>
+      </c>
+      <c r="R78" t="n">
+        <v>4</v>
+      </c>
+      <c r="S78" t="n">
+        <v>3</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>3</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>490</v>
+      </c>
+      <c r="X78" t="s">
+        <v>491</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>38557</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>583</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>584</v>
+      </c>
+      <c r="J79" t="s">
+        <v>585</v>
+      </c>
+      <c r="K79" t="s"/>
+      <c r="L79" t="s">
+        <v>580</v>
+      </c>
+      <c r="M79" t="n">
+        <v>4</v>
+      </c>
+      <c r="N79" t="s">
+        <v>586</v>
+      </c>
+      <c r="O79" t="s">
+        <v>63</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>4</v>
+      </c>
+      <c r="R79" t="n">
+        <v>4</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>4</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>490</v>
+      </c>
+      <c r="X79" t="s">
+        <v>491</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>38557</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>587</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>588</v>
+      </c>
+      <c r="J80" t="s">
+        <v>589</v>
+      </c>
+      <c r="K80" t="s"/>
+      <c r="L80" t="s"/>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>590</v>
+      </c>
+      <c r="O80" t="s">
+        <v>79</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>5</v>
+      </c>
+      <c r="R80" t="n">
+        <v>3</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>38557</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>591</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>592</v>
+      </c>
+      <c r="J81" t="s">
+        <v>593</v>
+      </c>
+      <c r="K81" t="s">
+        <v>594</v>
+      </c>
+      <c r="L81" t="s">
+        <v>595</v>
+      </c>
+      <c r="M81" t="n">
+        <v>4</v>
+      </c>
+      <c r="N81" t="s">
+        <v>596</v>
+      </c>
+      <c r="O81" t="s">
+        <v>79</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>4</v>
+      </c>
+      <c r="R81" t="n">
+        <v>4</v>
+      </c>
+      <c r="S81" t="n">
+        <v>4</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>38557</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>598</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>599</v>
+      </c>
+      <c r="J82" t="s">
+        <v>600</v>
+      </c>
+      <c r="K82" t="s">
+        <v>601</v>
+      </c>
+      <c r="L82" t="s">
+        <v>602</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>596</v>
+      </c>
+      <c r="O82" t="s">
+        <v>103</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>4</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>4</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>38557</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>603</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>604</v>
+      </c>
+      <c r="J83" t="s">
+        <v>605</v>
+      </c>
+      <c r="K83" t="s">
+        <v>606</v>
+      </c>
+      <c r="L83" t="s">
+        <v>607</v>
+      </c>
+      <c r="M83" t="n">
+        <v>4</v>
+      </c>
+      <c r="N83" t="s">
+        <v>608</v>
+      </c>
+      <c r="O83" t="s">
+        <v>79</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>4</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>4</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>38557</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>610</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>611</v>
+      </c>
+      <c r="J84" t="s">
+        <v>612</v>
+      </c>
+      <c r="K84" t="s">
+        <v>613</v>
+      </c>
+      <c r="L84" t="s">
+        <v>614</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>615</v>
+      </c>
+      <c r="O84" t="s">
+        <v>79</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>5</v>
+      </c>
+      <c r="R84" t="n">
+        <v>5</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>38557</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>617</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>618</v>
+      </c>
+      <c r="J85" t="s">
+        <v>619</v>
+      </c>
+      <c r="K85" t="s">
+        <v>620</v>
+      </c>
+      <c r="L85" t="s">
+        <v>621</v>
+      </c>
+      <c r="M85" t="n">
+        <v>4</v>
+      </c>
+      <c r="N85" t="s">
+        <v>622</v>
+      </c>
+      <c r="O85" t="s">
+        <v>79</v>
+      </c>
+      <c r="P85" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>4</v>
+      </c>
+      <c r="R85" t="n">
+        <v>4</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>3</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>38557</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>624</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>625</v>
+      </c>
+      <c r="J86" t="s">
+        <v>626</v>
+      </c>
+      <c r="K86" t="s">
+        <v>627</v>
+      </c>
+      <c r="L86" t="s">
+        <v>628</v>
+      </c>
+      <c r="M86" t="n">
+        <v>4</v>
+      </c>
+      <c r="N86" t="s">
+        <v>629</v>
+      </c>
+      <c r="O86" t="s">
+        <v>163</v>
+      </c>
+      <c r="P86" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>4</v>
+      </c>
+      <c r="R86" t="n">
+        <v>3</v>
+      </c>
+      <c r="S86" t="n">
+        <v>3</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>4</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>38557</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>630</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>631</v>
+      </c>
+      <c r="J87" t="s">
+        <v>632</v>
+      </c>
+      <c r="K87" t="s">
+        <v>633</v>
+      </c>
+      <c r="L87" t="s">
+        <v>634</v>
+      </c>
+      <c r="M87" t="n">
+        <v>3</v>
+      </c>
+      <c r="N87" t="s">
+        <v>635</v>
+      </c>
+      <c r="O87" t="s">
+        <v>79</v>
+      </c>
+      <c r="P87" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>3</v>
+      </c>
+      <c r="R87" t="n">
+        <v>4</v>
+      </c>
+      <c r="S87" t="n">
+        <v>4</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>3</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>38557</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>636</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>637</v>
+      </c>
+      <c r="J88" t="s">
+        <v>638</v>
+      </c>
+      <c r="K88" t="s">
+        <v>639</v>
+      </c>
+      <c r="L88" t="s">
+        <v>640</v>
+      </c>
+      <c r="M88" t="n">
+        <v>2</v>
+      </c>
+      <c r="N88" t="s">
+        <v>641</v>
+      </c>
+      <c r="O88" t="s">
+        <v>79</v>
+      </c>
+      <c r="P88" t="s"/>
+      <c r="Q88" t="s"/>
+      <c r="R88" t="s"/>
+      <c r="S88" t="s"/>
+      <c r="T88" t="s"/>
+      <c r="U88" t="s"/>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>38557</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>643</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>644</v>
+      </c>
+      <c r="J89" t="s">
+        <v>645</v>
+      </c>
+      <c r="K89" t="s">
+        <v>646</v>
+      </c>
+      <c r="L89" t="s">
+        <v>647</v>
+      </c>
+      <c r="M89" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" t="s">
+        <v>648</v>
+      </c>
+      <c r="O89" t="s">
+        <v>79</v>
+      </c>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>5</v>
+      </c>
+      <c r="R89" t="n">
+        <v>4</v>
+      </c>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>38557</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>649</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>650</v>
+      </c>
+      <c r="J90" t="s">
+        <v>651</v>
+      </c>
+      <c r="K90" t="s">
+        <v>652</v>
+      </c>
+      <c r="L90" t="s">
+        <v>653</v>
+      </c>
+      <c r="M90" t="n">
+        <v>3</v>
+      </c>
+      <c r="N90" t="s"/>
+      <c r="O90" t="s"/>
+      <c r="P90" t="s"/>
+      <c r="Q90" t="s"/>
+      <c r="R90" t="s"/>
+      <c r="S90" t="s"/>
+      <c r="T90" t="s"/>
+      <c r="U90" t="s"/>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>38557</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>654</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>655</v>
+      </c>
+      <c r="J91" t="s">
+        <v>656</v>
+      </c>
+      <c r="K91" t="s">
+        <v>657</v>
+      </c>
+      <c r="L91" t="s">
+        <v>658</v>
+      </c>
+      <c r="M91" t="n">
+        <v>4</v>
+      </c>
+      <c r="N91" t="s"/>
+      <c r="O91" t="s"/>
+      <c r="P91" t="s"/>
+      <c r="Q91" t="s"/>
+      <c r="R91" t="s"/>
+      <c r="S91" t="s"/>
+      <c r="T91" t="s"/>
+      <c r="U91" t="s"/>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>38557</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>660</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>661</v>
+      </c>
+      <c r="J92" t="s">
+        <v>662</v>
+      </c>
+      <c r="K92" t="s">
+        <v>663</v>
+      </c>
+      <c r="L92" t="s">
+        <v>664</v>
+      </c>
+      <c r="M92" t="n">
+        <v>5</v>
+      </c>
+      <c r="N92" t="s"/>
+      <c r="O92" t="s"/>
+      <c r="P92" t="s"/>
+      <c r="Q92" t="s"/>
+      <c r="R92" t="s"/>
+      <c r="S92" t="s"/>
+      <c r="T92" t="s"/>
+      <c r="U92" t="s"/>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>665</v>
       </c>
     </row>
   </sheetData>
